--- a/MaAverageEducationIndexZip.xlsx
+++ b/MaAverageEducationIndexZip.xlsx
@@ -2,1664 +2,48 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\shared_with_honey\WPI-SCHOOL\courses\cs539 Machine Learning\draftproject\program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\shared_with_honey\WPI-SCHOOL\courses\cs539 Machine Learning\IMPORTANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77197279-D1F0-44AE-8565-92D292C540ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BBAD1C-9FFF-4778-8C0D-D24185FEF327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0740608-C9CB-45CB-8C59-00C77574FB22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Average Education Index </t>
   </si>
   <si>
     <t>zip_code</t>
   </si>
-  <si>
-    <t>1066 </t>
-  </si>
-  <si>
-    <t>2584 </t>
-  </si>
-  <si>
-    <t>2672 </t>
-  </si>
-  <si>
-    <t>1718 </t>
-  </si>
-  <si>
-    <t>2142 </t>
-  </si>
-  <si>
-    <t>2468 </t>
-  </si>
-  <si>
-    <t>2459 </t>
-  </si>
-  <si>
-    <t>1467 </t>
-  </si>
-  <si>
-    <t>2138 </t>
-  </si>
-  <si>
-    <t>2110 </t>
-  </si>
-  <si>
-    <t>2461 </t>
-  </si>
-  <si>
-    <t>2481 </t>
-  </si>
-  <si>
-    <t>2543 </t>
-  </si>
-  <si>
-    <t>2791 </t>
-  </si>
-  <si>
-    <t>2163 </t>
-  </si>
-  <si>
-    <t>2446 </t>
-  </si>
-  <si>
-    <t>2493 </t>
-  </si>
-  <si>
-    <t>1773 </t>
-  </si>
-  <si>
-    <t>2030 </t>
-  </si>
-  <si>
-    <t>1770 </t>
-  </si>
-  <si>
-    <t>2445 </t>
-  </si>
-  <si>
-    <t>1719 </t>
-  </si>
-  <si>
-    <t>2421 </t>
-  </si>
-  <si>
-    <t>2199 </t>
-  </si>
-  <si>
-    <t>2215 </t>
-  </si>
-  <si>
-    <t>2108 </t>
-  </si>
-  <si>
-    <t>2467 </t>
-  </si>
-  <si>
-    <t>1741 </t>
-  </si>
-  <si>
-    <t>1778 </t>
-  </si>
-  <si>
-    <t>2482 </t>
-  </si>
-  <si>
-    <t>2210 </t>
-  </si>
-  <si>
-    <t>2114 </t>
-  </si>
-  <si>
-    <t>2420 </t>
-  </si>
-  <si>
-    <t>2462 </t>
-  </si>
-  <si>
-    <t>1451 </t>
-  </si>
-  <si>
-    <t>2492 </t>
-  </si>
-  <si>
-    <t>1776 </t>
-  </si>
-  <si>
-    <t>1720 </t>
-  </si>
-  <si>
-    <t>2466 </t>
-  </si>
-  <si>
-    <t>2465 </t>
-  </si>
-  <si>
-    <t>2460 </t>
-  </si>
-  <si>
-    <t>2478 </t>
-  </si>
-  <si>
-    <t>1342 </t>
-  </si>
-  <si>
-    <t>1002 </t>
-  </si>
-  <si>
-    <t>2067 </t>
-  </si>
-  <si>
-    <t>2116 </t>
-  </si>
-  <si>
-    <t>1890 </t>
-  </si>
-  <si>
-    <t>2139 </t>
-  </si>
-  <si>
-    <t>2494 </t>
-  </si>
-  <si>
-    <t>2641 </t>
-  </si>
-  <si>
-    <t>2458 </t>
-  </si>
-  <si>
-    <t>2476 </t>
-  </si>
-  <si>
-    <t>1810 </t>
-  </si>
-  <si>
-    <t>1886 </t>
-  </si>
-  <si>
-    <t>1730 </t>
-  </si>
-  <si>
-    <t>1945 </t>
-  </si>
-  <si>
-    <t>2647 </t>
-  </si>
-  <si>
-    <t>2090 </t>
-  </si>
-  <si>
-    <t>2464 </t>
-  </si>
-  <si>
-    <t>2651 </t>
-  </si>
-  <si>
-    <t>1772 </t>
-  </si>
-  <si>
-    <t>1982 </t>
-  </si>
-  <si>
-    <t>2052 </t>
-  </si>
-  <si>
-    <t>1775 </t>
-  </si>
-  <si>
-    <t>1054 </t>
-  </si>
-  <si>
-    <t>2357 </t>
-  </si>
-  <si>
-    <t>1742 </t>
-  </si>
-  <si>
-    <t>1450 </t>
-  </si>
-  <si>
-    <t>1106 </t>
-  </si>
-  <si>
-    <t>1760 </t>
-  </si>
-  <si>
-    <t>2474 </t>
-  </si>
-  <si>
-    <t>1072 </t>
-  </si>
-  <si>
-    <t>2140 </t>
-  </si>
-  <si>
-    <t>2457 </t>
-  </si>
-  <si>
-    <t>2144 </t>
-  </si>
-  <si>
-    <t>2186 </t>
-  </si>
-  <si>
-    <t>2025 </t>
-  </si>
-  <si>
-    <t>1740 </t>
-  </si>
-  <si>
-    <t>1541 </t>
-  </si>
-  <si>
-    <t>1748 </t>
-  </si>
-  <si>
-    <t>1983 </t>
-  </si>
-  <si>
-    <t>1060 </t>
-  </si>
-  <si>
-    <t>2646 </t>
-  </si>
-  <si>
-    <t>2043 </t>
-  </si>
-  <si>
-    <t>2130 </t>
-  </si>
-  <si>
-    <t>2113 </t>
-  </si>
-  <si>
-    <t>2332 </t>
-  </si>
-  <si>
-    <t>2635 </t>
-  </si>
-  <si>
-    <t>1731 </t>
-  </si>
-  <si>
-    <t>1341 </t>
-  </si>
-  <si>
-    <t>1375 </t>
-  </si>
-  <si>
-    <t>2667 </t>
-  </si>
-  <si>
-    <t>1944 </t>
-  </si>
-  <si>
-    <t>1984 </t>
-  </si>
-  <si>
-    <t>1267 </t>
-  </si>
-  <si>
-    <t>1460 </t>
-  </si>
-  <si>
-    <t>1921 </t>
-  </si>
-  <si>
-    <t>1951 </t>
-  </si>
-  <si>
-    <t>1746 </t>
-  </si>
-  <si>
-    <t>1845 </t>
-  </si>
-  <si>
-    <t>2109 </t>
-  </si>
-  <si>
-    <t>2630 </t>
-  </si>
-  <si>
-    <t>1721 </t>
-  </si>
-  <si>
-    <t>1581 </t>
-  </si>
-  <si>
-    <t>1950 </t>
-  </si>
-  <si>
-    <t>1236 </t>
-  </si>
-  <si>
-    <t>1985 </t>
-  </si>
-  <si>
-    <t>1907 </t>
-  </si>
-  <si>
-    <t>2115 </t>
-  </si>
-  <si>
-    <t>1745 </t>
-  </si>
-  <si>
-    <t>2637 </t>
-  </si>
-  <si>
-    <t>1084 </t>
-  </si>
-  <si>
-    <t>1093 </t>
-  </si>
-  <si>
-    <t>2141 </t>
-  </si>
-  <si>
-    <t>1867 </t>
-  </si>
-  <si>
-    <t>1922 </t>
-  </si>
-  <si>
-    <t>1612 </t>
-  </si>
-  <si>
-    <t>1264 </t>
-  </si>
-  <si>
-    <t>2535 </t>
-  </si>
-  <si>
-    <t>2143 </t>
-  </si>
-  <si>
-    <t>2652 </t>
-  </si>
-  <si>
-    <t>2472 </t>
-  </si>
-  <si>
-    <t>1545 </t>
-  </si>
-  <si>
-    <t>1062 </t>
-  </si>
-  <si>
-    <t>1532 </t>
-  </si>
-  <si>
-    <t>2540 </t>
-  </si>
-  <si>
-    <t>1522 </t>
-  </si>
-  <si>
-    <t>2066 </t>
-  </si>
-  <si>
-    <t>2650 </t>
-  </si>
-  <si>
-    <t>2763 </t>
-  </si>
-  <si>
-    <t>2713 </t>
-  </si>
-  <si>
-    <t>2061 </t>
-  </si>
-  <si>
-    <t>1827 </t>
-  </si>
-  <si>
-    <t>2129 </t>
-  </si>
-  <si>
-    <t>1519 </t>
-  </si>
-  <si>
-    <t>2668 </t>
-  </si>
-  <si>
-    <t>1244 </t>
-  </si>
-  <si>
-    <t>1266 </t>
-  </si>
-  <si>
-    <t>2021 </t>
-  </si>
-  <si>
-    <t>2556 </t>
-  </si>
-  <si>
-    <t>2135 </t>
-  </si>
-  <si>
-    <t>2653 </t>
-  </si>
-  <si>
-    <t>1824 </t>
-  </si>
-  <si>
-    <t>2655 </t>
-  </si>
-  <si>
-    <t>1908 </t>
-  </si>
-  <si>
-    <t>1833 </t>
-  </si>
-  <si>
-    <t>2356 </t>
-  </si>
-  <si>
-    <t>1966 </t>
-  </si>
-  <si>
-    <t>2671 </t>
-  </si>
-  <si>
-    <t>1701 </t>
-  </si>
-  <si>
-    <t>2132 </t>
-  </si>
-  <si>
-    <t>2575 </t>
-  </si>
-  <si>
-    <t>1520 </t>
-  </si>
-  <si>
-    <t>2053 </t>
-  </si>
-  <si>
-    <t>2631 </t>
-  </si>
-  <si>
-    <t>1330 </t>
-  </si>
-  <si>
-    <t>2643 </t>
-  </si>
-  <si>
-    <t>1086 </t>
-  </si>
-  <si>
-    <t>2659 </t>
-  </si>
-  <si>
-    <t>1505 </t>
-  </si>
-  <si>
-    <t>2537 </t>
-  </si>
-  <si>
-    <t>2048 </t>
-  </si>
-  <si>
-    <t>1938 </t>
-  </si>
-  <si>
-    <t>2657 </t>
-  </si>
-  <si>
-    <t>2038 </t>
-  </si>
-  <si>
-    <t>1756 </t>
-  </si>
-  <si>
-    <t>1039 </t>
-  </si>
-  <si>
-    <t>2176 </t>
-  </si>
-  <si>
-    <t>2633 </t>
-  </si>
-  <si>
-    <t>2561 </t>
-  </si>
-  <si>
-    <t>1254 </t>
-  </si>
-  <si>
-    <t>1864 </t>
-  </si>
-  <si>
-    <t>1940 </t>
-  </si>
-  <si>
-    <t>1754 </t>
-  </si>
-  <si>
-    <t>2118 </t>
-  </si>
-  <si>
-    <t>1355 </t>
-  </si>
-  <si>
-    <t>1240 </t>
-  </si>
-  <si>
-    <t>1037 </t>
-  </si>
-  <si>
-    <t>2050 </t>
-  </si>
-  <si>
-    <t>2559 </t>
-  </si>
-  <si>
-    <t>1564 </t>
-  </si>
-  <si>
-    <t>2739 </t>
-  </si>
-  <si>
-    <t>1070 </t>
-  </si>
-  <si>
-    <t>2669 </t>
-  </si>
-  <si>
-    <t>1258 </t>
-  </si>
-  <si>
-    <t>1568 </t>
-  </si>
-  <si>
-    <t>2081 </t>
-  </si>
-  <si>
-    <t>1860 </t>
-  </si>
-  <si>
-    <t>2452 </t>
-  </si>
-  <si>
-    <t>1803 </t>
-  </si>
-  <si>
-    <t>2035 </t>
-  </si>
-  <si>
-    <t>2738 </t>
-  </si>
-  <si>
-    <t>2054 </t>
-  </si>
-  <si>
-    <t>2134 </t>
-  </si>
-  <si>
-    <t>2638 </t>
-  </si>
-  <si>
-    <t>2093 </t>
-  </si>
-  <si>
-    <t>1566 </t>
-  </si>
-  <si>
-    <t>2557 </t>
-  </si>
-  <si>
-    <t>1035 </t>
-  </si>
-  <si>
-    <t>2642 </t>
-  </si>
-  <si>
-    <t>2056 </t>
-  </si>
-  <si>
-    <t>2026 </t>
-  </si>
-  <si>
-    <t>1003 </t>
-  </si>
-  <si>
-    <t>1929 </t>
-  </si>
-  <si>
-    <t>1245 </t>
-  </si>
-  <si>
-    <t>1503 </t>
-  </si>
-  <si>
-    <t>2451 </t>
-  </si>
-  <si>
-    <t>1354 </t>
-  </si>
-  <si>
-    <t>1366 </t>
-  </si>
-  <si>
-    <t>2554 </t>
-  </si>
-  <si>
-    <t>2675 </t>
-  </si>
-  <si>
-    <t>1242 </t>
-  </si>
-  <si>
-    <t>2127 </t>
-  </si>
-  <si>
-    <t>1259 </t>
-  </si>
-  <si>
-    <t>1560 </t>
-  </si>
-  <si>
-    <t>2670 </t>
-  </si>
-  <si>
-    <t>1915 </t>
-  </si>
-  <si>
-    <t>2032 </t>
-  </si>
-  <si>
-    <t>1536 </t>
-  </si>
-  <si>
-    <t>2760 </t>
-  </si>
-  <si>
-    <t>1360 </t>
-  </si>
-  <si>
-    <t>1095 </t>
-  </si>
-  <si>
-    <t>2568 </t>
-  </si>
-  <si>
-    <t>1590 </t>
-  </si>
-  <si>
-    <t>2339 </t>
-  </si>
-  <si>
-    <t>1863 </t>
-  </si>
-  <si>
-    <t>2563 </t>
-  </si>
-  <si>
-    <t>1543 </t>
-  </si>
-  <si>
-    <t>1347 </t>
-  </si>
-  <si>
-    <t>2553 </t>
-  </si>
-  <si>
-    <t>1880 </t>
-  </si>
-  <si>
-    <t>2375 </t>
-  </si>
-  <si>
-    <t>1602 </t>
-  </si>
-  <si>
-    <t>1229 </t>
-  </si>
-  <si>
-    <t>1026 </t>
-  </si>
-  <si>
-    <t>2648 </t>
-  </si>
-  <si>
-    <t>2111 </t>
-  </si>
-  <si>
-    <t>1373 </t>
-  </si>
-  <si>
-    <t>2666 </t>
-  </si>
-  <si>
-    <t>1913 </t>
-  </si>
-  <si>
-    <t>2155 </t>
-  </si>
-  <si>
-    <t>1038 </t>
-  </si>
-  <si>
-    <t>1032 </t>
-  </si>
-  <si>
-    <t>1028 </t>
-  </si>
-  <si>
-    <t>2045 </t>
-  </si>
-  <si>
-    <t>2632 </t>
-  </si>
-  <si>
-    <t>2062 </t>
-  </si>
-  <si>
-    <t>2644 </t>
-  </si>
-  <si>
-    <t>1473 </t>
-  </si>
-  <si>
-    <t>1075 </t>
-  </si>
-  <si>
-    <t>1923 </t>
-  </si>
-  <si>
-    <t>1835 </t>
-  </si>
-  <si>
-    <t>1012 </t>
-  </si>
-  <si>
-    <t>1010 </t>
-  </si>
-  <si>
-    <t>1262 </t>
-  </si>
-  <si>
-    <t>1338 </t>
-  </si>
-  <si>
-    <t>1096 </t>
-  </si>
-  <si>
-    <t>2180 </t>
-  </si>
-  <si>
-    <t>1887 </t>
-  </si>
-  <si>
-    <t>1370 </t>
-  </si>
-  <si>
-    <t>1036 </t>
-  </si>
-  <si>
-    <t>1351 </t>
-  </si>
-  <si>
-    <t>1238 </t>
-  </si>
-  <si>
-    <t>1270 </t>
-  </si>
-  <si>
-    <t>1879 </t>
-  </si>
-  <si>
-    <t>1007 </t>
-  </si>
-  <si>
-    <t>1223 </t>
-  </si>
-  <si>
-    <t>1525 </t>
-  </si>
-  <si>
-    <t>2770 </t>
-  </si>
-  <si>
-    <t>1346 </t>
-  </si>
-  <si>
-    <t>1969 </t>
-  </si>
-  <si>
-    <t>1834 </t>
-  </si>
-  <si>
-    <t>1474 </t>
-  </si>
-  <si>
-    <t>2364 </t>
-  </si>
-  <si>
-    <t>1518 </t>
-  </si>
-  <si>
-    <t>2762 </t>
-  </si>
-  <si>
-    <t>1098 </t>
-  </si>
-  <si>
-    <t>1379 </t>
-  </si>
-  <si>
-    <t>1606 </t>
-  </si>
-  <si>
-    <t>2536 </t>
-  </si>
-  <si>
-    <t>1430 </t>
-  </si>
-  <si>
-    <t>2453 </t>
-  </si>
-  <si>
-    <t>1022 </t>
-  </si>
-  <si>
-    <t>2360 </t>
-  </si>
-  <si>
-    <t>2562 </t>
-  </si>
-  <si>
-    <t>2532 </t>
-  </si>
-  <si>
-    <t>2715 </t>
-  </si>
-  <si>
-    <t>2184 </t>
-  </si>
-  <si>
-    <t>2649 </t>
-  </si>
-  <si>
-    <t>2645 </t>
-  </si>
-  <si>
-    <t>2766 </t>
-  </si>
-  <si>
-    <t>1516 </t>
-  </si>
-  <si>
-    <t>2152 </t>
-  </si>
-  <si>
-    <t>2769 </t>
-  </si>
-  <si>
-    <t>2534 </t>
-  </si>
-  <si>
-    <t>1432 </t>
-  </si>
-  <si>
-    <t>2131 </t>
-  </si>
-  <si>
-    <t>1970 </t>
-  </si>
-  <si>
-    <t>1068 </t>
-  </si>
-  <si>
-    <t>2564 </t>
-  </si>
-  <si>
-    <t>2660 </t>
-  </si>
-  <si>
-    <t>2171 </t>
-  </si>
-  <si>
-    <t>2359 </t>
-  </si>
-  <si>
-    <t>1222 </t>
-  </si>
-  <si>
-    <t>1237 </t>
-  </si>
-  <si>
-    <t>1569 </t>
-  </si>
-  <si>
-    <t>1053 </t>
-  </si>
-  <si>
-    <t>1469 </t>
-  </si>
-  <si>
-    <t>1073 </t>
-  </si>
-  <si>
-    <t>1747 </t>
-  </si>
-  <si>
-    <t>1801 </t>
-  </si>
-  <si>
-    <t>1034 </t>
-  </si>
-  <si>
-    <t>1230 </t>
-  </si>
-  <si>
-    <t>1463 </t>
-  </si>
-  <si>
-    <t>1462 </t>
-  </si>
-  <si>
-    <t>1531 </t>
-  </si>
-  <si>
-    <t>1438 </t>
-  </si>
-  <si>
-    <t>2169 </t>
-  </si>
-  <si>
-    <t>2351 </t>
-  </si>
-  <si>
-    <t>1752 </t>
-  </si>
-  <si>
-    <t>2367 </t>
-  </si>
-  <si>
-    <t>1378 </t>
-  </si>
-  <si>
-    <t>1507 </t>
-  </si>
-  <si>
-    <t>1253 </t>
-  </si>
-  <si>
-    <t>1063 </t>
-  </si>
-  <si>
-    <t>1226 </t>
-  </si>
-  <si>
-    <t>2188 </t>
-  </si>
-  <si>
-    <t>2190 </t>
-  </si>
-  <si>
-    <t>2767 </t>
-  </si>
-  <si>
-    <t>2347 </t>
-  </si>
-  <si>
-    <t>1501 </t>
-  </si>
-  <si>
-    <t>1757 </t>
-  </si>
-  <si>
-    <t>2191 </t>
-  </si>
-  <si>
-    <t>1008 </t>
-  </si>
-  <si>
-    <t>2324 </t>
-  </si>
-  <si>
-    <t>1079 </t>
-  </si>
-  <si>
-    <t>1033 </t>
-  </si>
-  <si>
-    <t>1257 </t>
-  </si>
-  <si>
-    <t>1949 </t>
-  </si>
-  <si>
-    <t>2341 </t>
-  </si>
-  <si>
-    <t>1523 </t>
-  </si>
-  <si>
-    <t>2764 </t>
-  </si>
-  <si>
-    <t>1876 </t>
-  </si>
-  <si>
-    <t>1077 </t>
-  </si>
-  <si>
-    <t>1749 </t>
-  </si>
-  <si>
-    <t>2542 </t>
-  </si>
-  <si>
-    <t>2639 </t>
-  </si>
-  <si>
-    <t>2664 </t>
-  </si>
-  <si>
-    <t>1821 </t>
-  </si>
-  <si>
-    <t>1510 </t>
-  </si>
-  <si>
-    <t>1337 </t>
-  </si>
-  <si>
-    <t>1609 </t>
-  </si>
-  <si>
-    <t>1534 </t>
-  </si>
-  <si>
-    <t>2072 </t>
-  </si>
-  <si>
-    <t>1027 </t>
-  </si>
-  <si>
-    <t>1583 </t>
-  </si>
-  <si>
-    <t>2771 </t>
-  </si>
-  <si>
-    <t>2338 </t>
-  </si>
-  <si>
-    <t>1452 </t>
-  </si>
-  <si>
-    <t>1118 </t>
-  </si>
-  <si>
-    <t>1243 </t>
-  </si>
-  <si>
-    <t>1521 </t>
-  </si>
-  <si>
-    <t>1952 </t>
-  </si>
-  <si>
-    <t>1030 </t>
-  </si>
-  <si>
-    <t>2379 </t>
-  </si>
-  <si>
-    <t>1339 </t>
-  </si>
-  <si>
-    <t>2346 </t>
-  </si>
-  <si>
-    <t>1588 </t>
-  </si>
-  <si>
-    <t>1930 </t>
-  </si>
-  <si>
-    <t>2120 </t>
-  </si>
-  <si>
-    <t>2663 </t>
-  </si>
-  <si>
-    <t>1301 </t>
-  </si>
-  <si>
-    <t>1085 </t>
-  </si>
-  <si>
-    <t>2673 </t>
-  </si>
-  <si>
-    <t>1862 </t>
-  </si>
-  <si>
-    <t>2170 </t>
-  </si>
-  <si>
-    <t>2189 </t>
-  </si>
-  <si>
-    <t>2382 </t>
-  </si>
-  <si>
-    <t>2343 </t>
-  </si>
-  <si>
-    <t>1540 </t>
-  </si>
-  <si>
-    <t>2019 </t>
-  </si>
-  <si>
-    <t>1071 </t>
-  </si>
-  <si>
-    <t>1702 </t>
-  </si>
-  <si>
-    <t>1431 </t>
-  </si>
-  <si>
-    <t>1057 </t>
-  </si>
-  <si>
-    <t>2333 </t>
-  </si>
-  <si>
-    <t>1001 </t>
-  </si>
-  <si>
-    <t>1527 </t>
-  </si>
-  <si>
-    <t>1571 </t>
-  </si>
-  <si>
-    <t>1904 </t>
-  </si>
-  <si>
-    <t>1504 </t>
-  </si>
-  <si>
-    <t>1611 </t>
-  </si>
-  <si>
-    <t>2370 </t>
-  </si>
-  <si>
-    <t>1255 </t>
-  </si>
-  <si>
-    <t>1029 </t>
-  </si>
-  <si>
-    <t>2748 </t>
-  </si>
-  <si>
-    <t>1960 </t>
-  </si>
-  <si>
-    <t>1515 </t>
-  </si>
-  <si>
-    <t>1561 </t>
-  </si>
-  <si>
-    <t>1201 </t>
-  </si>
-  <si>
-    <t>1506 </t>
-  </si>
-  <si>
-    <t>1128 </t>
-  </si>
-  <si>
-    <t>1524 </t>
-  </si>
-  <si>
-    <t>2148 </t>
-  </si>
-  <si>
-    <t>2703 </t>
-  </si>
-  <si>
-    <t>1844 </t>
-  </si>
-  <si>
-    <t>2571 </t>
-  </si>
-  <si>
-    <t>1225 </t>
-  </si>
-  <si>
-    <t>1005 </t>
-  </si>
-  <si>
-    <t>1089 </t>
-  </si>
-  <si>
-    <t>1235 </t>
-  </si>
-  <si>
-    <t>2368 </t>
-  </si>
-  <si>
-    <t>2790 </t>
-  </si>
-  <si>
-    <t>2145 </t>
-  </si>
-  <si>
-    <t>1542 </t>
-  </si>
-  <si>
-    <t>1535 </t>
-  </si>
-  <si>
-    <t>1826 </t>
-  </si>
-  <si>
-    <t>1129 </t>
-  </si>
-  <si>
-    <t>2779 </t>
-  </si>
-  <si>
-    <t>1340 </t>
-  </si>
-  <si>
-    <t>1585 </t>
-  </si>
-  <si>
-    <t>1906 </t>
-  </si>
-  <si>
-    <t>1050 </t>
-  </si>
-  <si>
-    <t>2136 </t>
-  </si>
-  <si>
-    <t>2726 </t>
-  </si>
-  <si>
-    <t>2322 </t>
-  </si>
-  <si>
-    <t>1529 </t>
-  </si>
-  <si>
-    <t>1604 </t>
-  </si>
-  <si>
-    <t>2601 </t>
-  </si>
-  <si>
-    <t>1537 </t>
-  </si>
-  <si>
-    <t>1349 </t>
-  </si>
-  <si>
-    <t>1343 </t>
-  </si>
-  <si>
-    <t>2777 </t>
-  </si>
-  <si>
-    <t>1832 </t>
-  </si>
-  <si>
-    <t>1562 </t>
-  </si>
-  <si>
-    <t>1082 </t>
-  </si>
-  <si>
-    <t>1069 </t>
-  </si>
-  <si>
-    <t>1901 </t>
-  </si>
-  <si>
-    <t>2071 </t>
-  </si>
-  <si>
-    <t>1344 </t>
-  </si>
-  <si>
-    <t>1453 </t>
-  </si>
-  <si>
-    <t>1468 </t>
-  </si>
-  <si>
-    <t>2576 </t>
-  </si>
-  <si>
-    <t>1605 </t>
-  </si>
-  <si>
-    <t>2702 </t>
-  </si>
-  <si>
-    <t>2719 </t>
-  </si>
-  <si>
-    <t>1830 </t>
-  </si>
-  <si>
-    <t>2330 </t>
-  </si>
-  <si>
-    <t>2125 </t>
-  </si>
-  <si>
-    <t>1092 </t>
-  </si>
-  <si>
-    <t>1367 </t>
-  </si>
-  <si>
-    <t>1376 </t>
-  </si>
-  <si>
-    <t>1074 </t>
-  </si>
-  <si>
-    <t>1081 </t>
-  </si>
-  <si>
-    <t>2539 </t>
-  </si>
-  <si>
-    <t>1434 </t>
-  </si>
-  <si>
-    <t>2717 </t>
-  </si>
-  <si>
-    <t>1350 </t>
-  </si>
-  <si>
-    <t>1475 </t>
-  </si>
-  <si>
-    <t>1224 </t>
-  </si>
-  <si>
-    <t>1097 </t>
-  </si>
-  <si>
-    <t>2718 </t>
-  </si>
-  <si>
-    <t>1247 </t>
-  </si>
-  <si>
-    <t>1607 </t>
-  </si>
-  <si>
-    <t>1056 </t>
-  </si>
-  <si>
-    <t>1464 </t>
-  </si>
-  <si>
-    <t>1852 </t>
-  </si>
-  <si>
-    <t>1368 </t>
-  </si>
-  <si>
-    <t>1436 </t>
-  </si>
-  <si>
-    <t>1011 </t>
-  </si>
-  <si>
-    <t>1256 </t>
-  </si>
-  <si>
-    <t>1937 </t>
-  </si>
-  <si>
-    <t>1364 </t>
-  </si>
-  <si>
-    <t>1031 </t>
-  </si>
-  <si>
-    <t>1220 </t>
-  </si>
-  <si>
-    <t>1020 </t>
-  </si>
-  <si>
-    <t>1420 </t>
-  </si>
-  <si>
-    <t>2747 </t>
-  </si>
-  <si>
-    <t>1570 </t>
-  </si>
-  <si>
-    <t>1083 </t>
-  </si>
-  <si>
-    <t>1440 </t>
-  </si>
-  <si>
-    <t>1094 </t>
-  </si>
-  <si>
-    <t>2302 </t>
-  </si>
-  <si>
-    <t>1331 </t>
-  </si>
-  <si>
-    <t>2538 </t>
-  </si>
-  <si>
-    <t>2743 </t>
-  </si>
-  <si>
-    <t>1119 </t>
-  </si>
-  <si>
-    <t>2558 </t>
-  </si>
-  <si>
-    <t>2124 </t>
-  </si>
-  <si>
-    <t>1040 </t>
-  </si>
-  <si>
-    <t>2119 </t>
-  </si>
-  <si>
-    <t>1088 </t>
-  </si>
-  <si>
-    <t>1108 </t>
-  </si>
-  <si>
-    <t>2151 </t>
-  </si>
-  <si>
-    <t>1550 </t>
-  </si>
-  <si>
-    <t>2780 </t>
-  </si>
-  <si>
-    <t>2720 </t>
-  </si>
-  <si>
-    <t>1603 </t>
-  </si>
-  <si>
-    <t>1080 </t>
-  </si>
-  <si>
-    <t>1854 </t>
-  </si>
-  <si>
-    <t>1151 </t>
-  </si>
-  <si>
-    <t>2301 </t>
-  </si>
-  <si>
-    <t>2149 </t>
-  </si>
-  <si>
-    <t>1850 </t>
-  </si>
-  <si>
-    <t>1851 </t>
-  </si>
-  <si>
-    <t>2725 </t>
-  </si>
-  <si>
-    <t>1013 </t>
-  </si>
-  <si>
-    <t>2126 </t>
-  </si>
-  <si>
-    <t>2122 </t>
-  </si>
-  <si>
-    <t>1902 </t>
-  </si>
-  <si>
-    <t>1905 </t>
-  </si>
-  <si>
-    <t>2745 </t>
-  </si>
-  <si>
-    <t>2740 </t>
-  </si>
-  <si>
-    <t>1109 </t>
-  </si>
-  <si>
-    <t>1260 </t>
-  </si>
-  <si>
-    <t>1843 </t>
-  </si>
-  <si>
-    <t>2121 </t>
-  </si>
-  <si>
-    <t>1009 </t>
-  </si>
-  <si>
-    <t>1103 </t>
-  </si>
-  <si>
-    <t>1610 </t>
-  </si>
-  <si>
-    <t>1104 </t>
-  </si>
-  <si>
-    <t>1608 </t>
-  </si>
-  <si>
-    <t>2128 </t>
-  </si>
-  <si>
-    <t>2047 </t>
-  </si>
-  <si>
-    <t>2150 </t>
-  </si>
-  <si>
-    <t>2721 </t>
-  </si>
-  <si>
-    <t>1841 </t>
-  </si>
-  <si>
-    <t>2366 </t>
-  </si>
-  <si>
-    <t>2723 </t>
-  </si>
-  <si>
-    <t>2744 </t>
-  </si>
-  <si>
-    <t>1840 </t>
-  </si>
-  <si>
-    <t>2724 </t>
-  </si>
-  <si>
-    <t>1105 </t>
-  </si>
-  <si>
-    <t>2746 </t>
-  </si>
-  <si>
-    <t>1107 </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1682,14 +66,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1712,44 +99,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1776,32 +163,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1828,24 +197,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1857,164 +208,187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A225D0-5737-4498-86EF-EE2ADE6AE292}">
-  <dimension ref="A1:B536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B541"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2022,4283 +396,4324 @@
       <c r="A2">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2">
+        <v>1066</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>2584</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18.23</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>2672</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>17.62</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5">
+        <v>1718</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>17.61</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6">
+        <v>2142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17.3</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7">
+        <v>2468</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17.149999999999999</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8">
+        <v>2459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>17.100000000000001</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9">
+        <v>1467</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17.09</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10">
+        <v>2138</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17.03</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11">
+        <v>2110</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B12">
+        <v>2461</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13">
+        <v>2481</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>16.96</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
+      <c r="B14">
+        <v>2543</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>16.95</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
+      <c r="B15">
+        <v>2791</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16.91</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
+      <c r="B16">
+        <v>2163</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16.91</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
+      <c r="B17">
+        <v>2446</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16.86</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
+      <c r="B18">
+        <v>2493</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16.86</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
+      <c r="B19">
+        <v>1773</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16.79</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
+      <c r="B20">
+        <v>2030</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16.78</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
+      <c r="B21">
+        <v>1770</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16.77</v>
       </c>
-      <c r="B22" t="s">
-        <v>22</v>
+      <c r="B22">
+        <v>2445</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>16.760000000000002</v>
       </c>
-      <c r="B23" t="s">
-        <v>23</v>
+      <c r="B23">
+        <v>1719</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16.73</v>
       </c>
-      <c r="B24" t="s">
-        <v>24</v>
+      <c r="B24">
+        <v>2421</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>16.72</v>
       </c>
-      <c r="B25" t="s">
-        <v>25</v>
+      <c r="B25">
+        <v>2199</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16.72</v>
       </c>
-      <c r="B26" t="s">
-        <v>26</v>
+      <c r="B26">
+        <v>2215</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16.7</v>
       </c>
-      <c r="B27" t="s">
-        <v>27</v>
+      <c r="B27">
+        <v>2108</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16.7</v>
       </c>
-      <c r="B28" t="s">
-        <v>28</v>
+      <c r="B28">
+        <v>2467</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>16.68</v>
       </c>
-      <c r="B29" t="s">
-        <v>29</v>
+      <c r="B29">
+        <v>1741</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16.68</v>
       </c>
-      <c r="B30" t="s">
-        <v>30</v>
+      <c r="B30">
+        <v>1778</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16.66</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
+      <c r="B31">
+        <v>2482</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>16.66</v>
       </c>
-      <c r="B32" t="s">
-        <v>32</v>
+      <c r="B32">
+        <v>2210</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16.63</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
+      <c r="B33">
+        <v>2114</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16.579999999999998</v>
       </c>
-      <c r="B34" t="s">
-        <v>34</v>
+      <c r="B34">
+        <v>2420</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>16.579999999999998</v>
       </c>
-      <c r="B35" t="s">
-        <v>35</v>
+      <c r="B35">
+        <v>2462</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16.55</v>
       </c>
-      <c r="B36" t="s">
-        <v>36</v>
+      <c r="B36">
+        <v>1451</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16.55</v>
       </c>
-      <c r="B37" t="s">
-        <v>37</v>
+      <c r="B37">
+        <v>2492</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16.54</v>
       </c>
-      <c r="B38" t="s">
-        <v>38</v>
+      <c r="B38">
+        <v>1776</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16.47</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
+      <c r="B39">
+        <v>1720</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16.36</v>
       </c>
-      <c r="B40" t="s">
-        <v>40</v>
+      <c r="B40">
+        <v>2466</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16.34</v>
       </c>
-      <c r="B41" t="s">
-        <v>41</v>
+      <c r="B41">
+        <v>2465</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16.309999999999999</v>
       </c>
-      <c r="B42" t="s">
-        <v>42</v>
+      <c r="B42">
+        <v>2460</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16.29</v>
       </c>
-      <c r="B43" t="s">
-        <v>43</v>
+      <c r="B43">
+        <v>2478</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16.260000000000002</v>
       </c>
-      <c r="B44" t="s">
-        <v>44</v>
+      <c r="B44">
+        <v>1342</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>16.260000000000002</v>
       </c>
-      <c r="B45" t="s">
-        <v>45</v>
+      <c r="B45">
+        <v>1002</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16.260000000000002</v>
       </c>
-      <c r="B46" t="s">
-        <v>46</v>
+      <c r="B46">
+        <v>2067</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16.25</v>
       </c>
-      <c r="B47" t="s">
-        <v>47</v>
+      <c r="B47">
+        <v>2116</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16.2</v>
       </c>
-      <c r="B48" t="s">
-        <v>48</v>
+      <c r="B48">
+        <v>1890</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16.16</v>
       </c>
-      <c r="B49" t="s">
-        <v>49</v>
+      <c r="B49">
+        <v>2139</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16.14</v>
       </c>
-      <c r="B50" t="s">
-        <v>50</v>
+      <c r="B50">
+        <v>2494</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>16.13</v>
       </c>
-      <c r="B51" t="s">
-        <v>51</v>
+      <c r="B51">
+        <v>2641</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16.13</v>
       </c>
-      <c r="B52" t="s">
-        <v>52</v>
+      <c r="B52">
+        <v>2458</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16.100000000000001</v>
       </c>
-      <c r="B53" t="s">
-        <v>53</v>
+      <c r="B53">
+        <v>2476</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16.100000000000001</v>
       </c>
-      <c r="B54" t="s">
-        <v>54</v>
+      <c r="B54">
+        <v>1810</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16.079999999999998</v>
       </c>
-      <c r="B55" t="s">
-        <v>55</v>
+      <c r="B55">
+        <v>1886</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16.059999999999999</v>
       </c>
-      <c r="B56" t="s">
-        <v>56</v>
+      <c r="B56">
+        <v>1730</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16.05</v>
       </c>
-      <c r="B57" t="s">
-        <v>57</v>
+      <c r="B57">
+        <v>1945</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16.05</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
+      <c r="B58">
+        <v>2647</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16.03</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
+      <c r="B59">
+        <v>2090</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16.010000000000002</v>
       </c>
-      <c r="B60" t="s">
-        <v>60</v>
+      <c r="B60">
+        <v>2464</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>16</v>
       </c>
-      <c r="B61" t="s">
-        <v>61</v>
+      <c r="B61">
+        <v>2651</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15.98</v>
       </c>
-      <c r="B62" t="s">
-        <v>62</v>
+      <c r="B62">
+        <v>1772</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>15.98</v>
       </c>
-      <c r="B63" t="s">
-        <v>63</v>
+      <c r="B63">
+        <v>1982</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15.96</v>
       </c>
-      <c r="B64" t="s">
-        <v>64</v>
+      <c r="B64">
+        <v>2052</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>15.92</v>
       </c>
-      <c r="B65" t="s">
-        <v>65</v>
+      <c r="B65">
+        <v>1775</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>15.91</v>
       </c>
-      <c r="B66" t="s">
-        <v>66</v>
+      <c r="B66">
+        <v>1054</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15.88</v>
       </c>
-      <c r="B67" t="s">
-        <v>67</v>
+      <c r="B67">
+        <v>2357</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>15.88</v>
       </c>
-      <c r="B68" t="s">
-        <v>68</v>
+      <c r="B68">
+        <v>1742</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>15.85</v>
       </c>
-      <c r="B69" t="s">
-        <v>69</v>
+      <c r="B69">
+        <v>1450</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>15.84</v>
       </c>
-      <c r="B70" t="s">
-        <v>70</v>
+      <c r="B70">
+        <v>1106</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>15.81</v>
       </c>
-      <c r="B71" t="s">
-        <v>71</v>
+      <c r="B71">
+        <v>1760</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15.8</v>
       </c>
-      <c r="B72" t="s">
-        <v>72</v>
+      <c r="B72">
+        <v>2474</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15.8</v>
       </c>
-      <c r="B73" t="s">
-        <v>73</v>
+      <c r="B73">
+        <v>1072</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>15.8</v>
       </c>
-      <c r="B74" t="s">
-        <v>74</v>
+      <c r="B74">
+        <v>2140</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15.76</v>
       </c>
-      <c r="B75" t="s">
-        <v>75</v>
+      <c r="B75">
+        <v>2457</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.74</v>
       </c>
-      <c r="B76" t="s">
-        <v>76</v>
+      <c r="B76">
+        <v>2144</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>15.74</v>
       </c>
-      <c r="B77" t="s">
-        <v>77</v>
+      <c r="B77">
+        <v>2186</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>15.74</v>
       </c>
-      <c r="B78" t="s">
-        <v>78</v>
+      <c r="B78">
+        <v>2025</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15.73</v>
       </c>
-      <c r="B79" t="s">
-        <v>79</v>
+      <c r="B79">
+        <v>1740</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>15.72</v>
       </c>
-      <c r="B80" t="s">
-        <v>80</v>
+      <c r="B80">
+        <v>1541</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>15.69</v>
       </c>
-      <c r="B81" t="s">
-        <v>81</v>
+      <c r="B81">
+        <v>1748</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>15.69</v>
       </c>
-      <c r="B82" t="s">
-        <v>82</v>
+      <c r="B82">
+        <v>1983</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>15.66</v>
       </c>
-      <c r="B83" t="s">
-        <v>83</v>
+      <c r="B83">
+        <v>1060</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>15.66</v>
       </c>
-      <c r="B84" t="s">
-        <v>84</v>
+      <c r="B84">
+        <v>2646</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>15.64</v>
       </c>
-      <c r="B85" t="s">
-        <v>85</v>
+      <c r="B85">
+        <v>2043</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>15.62</v>
       </c>
-      <c r="B86" t="s">
-        <v>86</v>
+      <c r="B86">
+        <v>2130</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>15.61</v>
       </c>
-      <c r="B87" t="s">
-        <v>87</v>
+      <c r="B87">
+        <v>2113</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>15.59</v>
       </c>
-      <c r="B88" t="s">
-        <v>88</v>
+      <c r="B88">
+        <v>2332</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15.58</v>
       </c>
-      <c r="B89" t="s">
-        <v>89</v>
+      <c r="B89">
+        <v>2635</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>15.58</v>
       </c>
-      <c r="B90" t="s">
-        <v>90</v>
+      <c r="B90">
+        <v>1731</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>15.56</v>
       </c>
-      <c r="B91" t="s">
-        <v>91</v>
+      <c r="B91">
+        <v>1341</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>15.54</v>
       </c>
-      <c r="B92" t="s">
-        <v>92</v>
+      <c r="B92">
+        <v>1375</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>15.54</v>
       </c>
-      <c r="B93" t="s">
-        <v>93</v>
+      <c r="B93">
+        <v>2667</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>15.53</v>
       </c>
-      <c r="B94" t="s">
-        <v>94</v>
+      <c r="B94">
+        <v>1944</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>15.52</v>
       </c>
-      <c r="B95" t="s">
-        <v>95</v>
+      <c r="B95">
+        <v>1984</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15.52</v>
       </c>
-      <c r="B96" t="s">
-        <v>96</v>
+      <c r="B96">
+        <v>1267</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>15.52</v>
       </c>
-      <c r="B97" t="s">
-        <v>97</v>
+      <c r="B97">
+        <v>1460</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>15.5</v>
       </c>
-      <c r="B98" t="s">
-        <v>98</v>
+      <c r="B98">
+        <v>1921</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>15.49</v>
       </c>
-      <c r="B99" t="s">
-        <v>99</v>
+      <c r="B99">
+        <v>1951</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>15.43</v>
       </c>
-      <c r="B100" t="s">
-        <v>100</v>
+      <c r="B100">
+        <v>1746</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>15.42</v>
       </c>
-      <c r="B101" t="s">
-        <v>101</v>
+      <c r="B101">
+        <v>1845</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>15.38</v>
       </c>
-      <c r="B102" t="s">
-        <v>102</v>
+      <c r="B102">
+        <v>2109</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>15.37</v>
       </c>
-      <c r="B103" t="s">
-        <v>103</v>
+      <c r="B103">
+        <v>2630</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>15.37</v>
       </c>
-      <c r="B104" t="s">
-        <v>104</v>
+      <c r="B104">
+        <v>1721</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>15.37</v>
       </c>
-      <c r="B105" t="s">
-        <v>105</v>
+      <c r="B105">
+        <v>1581</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15.37</v>
       </c>
-      <c r="B106" t="s">
-        <v>106</v>
+      <c r="B106">
+        <v>1950</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>15.36</v>
       </c>
-      <c r="B107" t="s">
-        <v>107</v>
+      <c r="B107">
+        <v>1236</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>15.35</v>
       </c>
-      <c r="B108" t="s">
-        <v>108</v>
+      <c r="B108">
+        <v>1985</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>15.34</v>
       </c>
-      <c r="B109" t="s">
-        <v>109</v>
+      <c r="B109">
+        <v>1907</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15.34</v>
       </c>
-      <c r="B110" t="s">
-        <v>110</v>
+      <c r="B110">
+        <v>2115</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>15.34</v>
       </c>
-      <c r="B111" t="s">
-        <v>111</v>
+      <c r="B111">
+        <v>1745</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>15.33</v>
       </c>
-      <c r="B112" t="s">
-        <v>112</v>
+      <c r="B112">
+        <v>2637</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>15.31</v>
       </c>
-      <c r="B113" t="s">
-        <v>113</v>
+      <c r="B113">
+        <v>1084</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>15.31</v>
       </c>
-      <c r="B114" t="s">
-        <v>114</v>
+      <c r="B114">
+        <v>1093</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>15.31</v>
       </c>
-      <c r="B115" t="s">
-        <v>115</v>
+      <c r="B115">
+        <v>2141</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15.31</v>
       </c>
-      <c r="B116" t="s">
-        <v>116</v>
+      <c r="B116">
+        <v>1867</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>15.29</v>
       </c>
-      <c r="B117" t="s">
-        <v>117</v>
+      <c r="B117">
+        <v>1922</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>15.28</v>
       </c>
-      <c r="B118" t="s">
-        <v>118</v>
+      <c r="B118">
+        <v>1612</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>15.27</v>
       </c>
-      <c r="B119" t="s">
-        <v>119</v>
+      <c r="B119">
+        <v>1264</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>15.27</v>
       </c>
-      <c r="B120" t="s">
-        <v>120</v>
+      <c r="B120">
+        <v>2535</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>15.25</v>
       </c>
-      <c r="B121" t="s">
-        <v>121</v>
+      <c r="B121">
+        <v>2143</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>15.25</v>
       </c>
-      <c r="B122" t="s">
-        <v>122</v>
+      <c r="B122">
+        <v>2652</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>15.24</v>
       </c>
-      <c r="B123" t="s">
-        <v>123</v>
+      <c r="B123">
+        <v>2472</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>15.23</v>
       </c>
-      <c r="B124" t="s">
-        <v>124</v>
+      <c r="B124">
+        <v>1545</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>15.23</v>
       </c>
-      <c r="B125" t="s">
-        <v>125</v>
+      <c r="B125">
+        <v>1062</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>15.22</v>
       </c>
-      <c r="B126" t="s">
-        <v>126</v>
+      <c r="B126">
+        <v>1532</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>15.21</v>
       </c>
-      <c r="B127" t="s">
-        <v>127</v>
+      <c r="B127">
+        <v>2540</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>15.21</v>
       </c>
-      <c r="B128" t="s">
-        <v>128</v>
+      <c r="B128">
+        <v>1522</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>15.19</v>
       </c>
-      <c r="B129" t="s">
-        <v>129</v>
+      <c r="B129">
+        <v>2066</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>15.19</v>
       </c>
-      <c r="B130" t="s">
-        <v>130</v>
+      <c r="B130">
+        <v>2650</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>15.15</v>
       </c>
-      <c r="B131" t="s">
-        <v>131</v>
+      <c r="B131">
+        <v>2763</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>15.15</v>
       </c>
-      <c r="B132" t="s">
-        <v>132</v>
+      <c r="B132">
+        <v>2713</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15.15</v>
       </c>
-      <c r="B133" t="s">
-        <v>133</v>
+      <c r="B133">
+        <v>2061</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>15.15</v>
       </c>
-      <c r="B134" t="s">
-        <v>134</v>
+      <c r="B134">
+        <v>1827</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>15.15</v>
       </c>
-      <c r="B135" t="s">
-        <v>135</v>
+      <c r="B135">
+        <v>2129</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>15.13</v>
       </c>
-      <c r="B136" t="s">
-        <v>136</v>
+      <c r="B136">
+        <v>1519</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>15.12</v>
       </c>
-      <c r="B137" t="s">
-        <v>137</v>
+      <c r="B137">
+        <v>2668</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>15.12</v>
       </c>
-      <c r="B138" t="s">
-        <v>138</v>
+      <c r="B138">
+        <v>1244</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>15.12</v>
       </c>
-      <c r="B139" t="s">
-        <v>139</v>
+      <c r="B139">
+        <v>1266</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>15.11</v>
       </c>
-      <c r="B140" t="s">
-        <v>140</v>
+      <c r="B140">
+        <v>2021</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>15.11</v>
       </c>
-      <c r="B141" t="s">
-        <v>141</v>
+      <c r="B141">
+        <v>2556</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>15.09</v>
       </c>
-      <c r="B142" t="s">
-        <v>142</v>
+      <c r="B142">
+        <v>2135</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>15.09</v>
       </c>
-      <c r="B143" t="s">
-        <v>143</v>
+      <c r="B143">
+        <v>2653</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>15.09</v>
       </c>
-      <c r="B144" t="s">
-        <v>144</v>
+      <c r="B144">
+        <v>1824</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>15.09</v>
       </c>
-      <c r="B145" t="s">
-        <v>145</v>
+      <c r="B145">
+        <v>2655</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>15.08</v>
       </c>
-      <c r="B146" t="s">
-        <v>146</v>
+      <c r="B146">
+        <v>1908</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>15.07</v>
       </c>
-      <c r="B147" t="s">
-        <v>147</v>
+      <c r="B147">
+        <v>1833</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>15.07</v>
       </c>
-      <c r="B148" t="s">
-        <v>148</v>
+      <c r="B148">
+        <v>2356</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>15.06</v>
       </c>
-      <c r="B149" t="s">
-        <v>149</v>
+      <c r="B149">
+        <v>1966</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>15.06</v>
       </c>
-      <c r="B150" t="s">
-        <v>150</v>
+      <c r="B150">
+        <v>2671</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>15.06</v>
       </c>
-      <c r="B151" t="s">
-        <v>151</v>
+      <c r="B151">
+        <v>1701</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>15.05</v>
       </c>
-      <c r="B152" t="s">
-        <v>152</v>
+      <c r="B152">
+        <v>2132</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>15.05</v>
       </c>
-      <c r="B153" t="s">
-        <v>153</v>
+      <c r="B153">
+        <v>2575</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>15.04</v>
       </c>
-      <c r="B154" t="s">
-        <v>154</v>
+      <c r="B154">
+        <v>1520</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>15.03</v>
       </c>
-      <c r="B155" t="s">
-        <v>155</v>
+      <c r="B155">
+        <v>2053</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>15.02</v>
       </c>
-      <c r="B156" t="s">
-        <v>156</v>
+      <c r="B156">
+        <v>2631</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>15.01</v>
       </c>
-      <c r="B157" t="s">
-        <v>157</v>
+      <c r="B157">
+        <v>1330</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>15</v>
       </c>
-      <c r="B158" t="s">
-        <v>158</v>
+      <c r="B158">
+        <v>2643</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>15</v>
       </c>
-      <c r="B159" t="s">
-        <v>159</v>
+      <c r="B159">
+        <v>1086</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14.99</v>
       </c>
-      <c r="B160" t="s">
-        <v>160</v>
+      <c r="B160">
+        <v>2659</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>14.99</v>
       </c>
-      <c r="B161" t="s">
-        <v>161</v>
+      <c r="B161">
+        <v>1505</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>14.98</v>
       </c>
-      <c r="B162" t="s">
-        <v>162</v>
+      <c r="B162">
+        <v>2537</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>14.98</v>
       </c>
-      <c r="B163" t="s">
-        <v>163</v>
+      <c r="B163">
+        <v>2048</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>14.98</v>
       </c>
-      <c r="B164" t="s">
-        <v>164</v>
+      <c r="B164">
+        <v>1938</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>14.97</v>
       </c>
-      <c r="B165" t="s">
-        <v>165</v>
+      <c r="B165">
+        <v>2657</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>14.96</v>
       </c>
-      <c r="B166" t="s">
-        <v>166</v>
+      <c r="B166">
+        <v>2038</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>14.95</v>
       </c>
-      <c r="B167" t="s">
-        <v>167</v>
+      <c r="B167">
+        <v>1756</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>14.93</v>
       </c>
-      <c r="B168" t="s">
-        <v>168</v>
+      <c r="B168">
+        <v>1039</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>14.93</v>
       </c>
-      <c r="B169" t="s">
-        <v>169</v>
+      <c r="B169">
+        <v>2176</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>14.92</v>
       </c>
-      <c r="B170" t="s">
-        <v>170</v>
+      <c r="B170">
+        <v>2633</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>14.9</v>
       </c>
-      <c r="B171" t="s">
-        <v>171</v>
+      <c r="B171">
+        <v>2561</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>14.88</v>
       </c>
-      <c r="B172" t="s">
-        <v>172</v>
+      <c r="B172">
+        <v>1254</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>14.87</v>
       </c>
-      <c r="B173" t="s">
-        <v>173</v>
+      <c r="B173">
+        <v>1864</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>14.85</v>
       </c>
-      <c r="B174" t="s">
-        <v>174</v>
+      <c r="B174">
+        <v>1940</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>14.85</v>
       </c>
-      <c r="B175" t="s">
-        <v>175</v>
+      <c r="B175">
+        <v>1754</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>14.84</v>
       </c>
-      <c r="B176" t="s">
-        <v>176</v>
+      <c r="B176">
+        <v>2118</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>14.84</v>
       </c>
-      <c r="B177" t="s">
-        <v>177</v>
+      <c r="B177">
+        <v>1355</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>14.83</v>
       </c>
-      <c r="B178" t="s">
-        <v>178</v>
+      <c r="B178">
+        <v>1240</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>14.83</v>
       </c>
-      <c r="B179" t="s">
-        <v>179</v>
+      <c r="B179">
+        <v>1037</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>14.83</v>
       </c>
-      <c r="B180" t="s">
-        <v>180</v>
+      <c r="B180">
+        <v>2050</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>14.82</v>
       </c>
-      <c r="B181" t="s">
-        <v>181</v>
+      <c r="B181">
+        <v>2559</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14.82</v>
       </c>
-      <c r="B182" t="s">
-        <v>182</v>
+      <c r="B182">
+        <v>1564</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>14.82</v>
       </c>
-      <c r="B183" t="s">
-        <v>183</v>
+      <c r="B183">
+        <v>2739</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>14.81</v>
       </c>
-      <c r="B184" t="s">
-        <v>184</v>
+      <c r="B184">
+        <v>1070</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>14.81</v>
       </c>
-      <c r="B185" t="s">
-        <v>185</v>
+      <c r="B185">
+        <v>2669</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>14.8</v>
       </c>
-      <c r="B186" t="s">
-        <v>186</v>
+      <c r="B186">
+        <v>1258</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>14.8</v>
       </c>
-      <c r="B187" t="s">
-        <v>187</v>
+      <c r="B187">
+        <v>1568</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>14.79</v>
       </c>
-      <c r="B188" t="s">
-        <v>188</v>
+      <c r="B188">
+        <v>2081</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>14.79</v>
       </c>
-      <c r="B189" t="s">
-        <v>189</v>
+      <c r="B189">
+        <v>1860</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>14.79</v>
       </c>
-      <c r="B190" t="s">
-        <v>190</v>
+      <c r="B190">
+        <v>2452</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>14.76</v>
       </c>
-      <c r="B191" t="s">
-        <v>191</v>
+      <c r="B191">
+        <v>1803</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>14.76</v>
       </c>
-      <c r="B192" t="s">
-        <v>192</v>
+      <c r="B192">
+        <v>2035</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>14.76</v>
       </c>
-      <c r="B193" t="s">
-        <v>193</v>
+      <c r="B193">
+        <v>2738</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>14.75</v>
       </c>
-      <c r="B194" t="s">
-        <v>194</v>
+      <c r="B194">
+        <v>2054</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>14.74</v>
       </c>
-      <c r="B195" t="s">
-        <v>195</v>
+      <c r="B195">
+        <v>2134</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>14.74</v>
       </c>
-      <c r="B196" t="s">
-        <v>196</v>
+      <c r="B196">
+        <v>2638</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>14.74</v>
       </c>
-      <c r="B197" t="s">
-        <v>197</v>
+      <c r="B197">
+        <v>2093</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>14.74</v>
       </c>
-      <c r="B198" t="s">
-        <v>198</v>
+      <c r="B198">
+        <v>1566</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>14.74</v>
       </c>
-      <c r="B199" t="s">
-        <v>199</v>
+      <c r="B199">
+        <v>2557</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>14.73</v>
       </c>
-      <c r="B200" t="s">
-        <v>200</v>
+      <c r="B200">
+        <v>1035</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>14.73</v>
       </c>
-      <c r="B201" t="s">
-        <v>201</v>
+      <c r="B201">
+        <v>2642</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>14.72</v>
       </c>
-      <c r="B202" t="s">
-        <v>202</v>
+      <c r="B202">
+        <v>2056</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>14.71</v>
       </c>
-      <c r="B203" t="s">
-        <v>203</v>
+      <c r="B203">
+        <v>2026</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>14.71</v>
       </c>
-      <c r="B204" t="s">
-        <v>204</v>
+      <c r="B204">
+        <v>1003</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>14.7</v>
       </c>
-      <c r="B205" t="s">
-        <v>205</v>
+      <c r="B205">
+        <v>1929</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>14.7</v>
       </c>
-      <c r="B206" t="s">
-        <v>206</v>
+      <c r="B206">
+        <v>1245</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>14.69</v>
       </c>
-      <c r="B207" t="s">
-        <v>207</v>
+      <c r="B207">
+        <v>1503</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>14.69</v>
       </c>
-      <c r="B208" t="s">
-        <v>208</v>
+      <c r="B208">
+        <v>2451</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>14.66</v>
       </c>
-      <c r="B209" t="s">
-        <v>209</v>
+      <c r="B209">
+        <v>1354</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>14.66</v>
       </c>
-      <c r="B210" t="s">
-        <v>210</v>
+      <c r="B210">
+        <v>1366</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>14.65</v>
       </c>
-      <c r="B211" t="s">
-        <v>211</v>
+      <c r="B211">
+        <v>2554</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>14.65</v>
       </c>
-      <c r="B212" t="s">
-        <v>212</v>
+      <c r="B212">
+        <v>2675</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>14.64</v>
       </c>
-      <c r="B213" t="s">
-        <v>213</v>
+      <c r="B213">
+        <v>1242</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>14.63</v>
       </c>
-      <c r="B214" t="s">
-        <v>214</v>
+      <c r="B214">
+        <v>2127</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>14.63</v>
       </c>
-      <c r="B215" t="s">
-        <v>215</v>
+      <c r="B215">
+        <v>1259</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>14.62</v>
       </c>
-      <c r="B216" t="s">
-        <v>216</v>
+      <c r="B216">
+        <v>1560</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>14.62</v>
       </c>
-      <c r="B217" t="s">
-        <v>217</v>
+      <c r="B217">
+        <v>2670</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>14.62</v>
       </c>
-      <c r="B218" t="s">
-        <v>218</v>
+      <c r="B218">
+        <v>1915</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>14.61</v>
       </c>
-      <c r="B219" t="s">
-        <v>219</v>
+      <c r="B219">
+        <v>2032</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>14.61</v>
       </c>
-      <c r="B220" t="s">
-        <v>220</v>
+      <c r="B220">
+        <v>1536</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14.61</v>
       </c>
-      <c r="B221" t="s">
-        <v>221</v>
+      <c r="B221">
+        <v>2760</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>14.6</v>
       </c>
-      <c r="B222" t="s">
-        <v>222</v>
+      <c r="B222">
+        <v>1360</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14.6</v>
       </c>
-      <c r="B223" t="s">
-        <v>223</v>
+      <c r="B223">
+        <v>1095</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>14.6</v>
       </c>
-      <c r="B224" t="s">
-        <v>224</v>
+      <c r="B224">
+        <v>2568</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14.59</v>
       </c>
-      <c r="B225" t="s">
-        <v>225</v>
+      <c r="B225">
+        <v>1590</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>14.58</v>
       </c>
-      <c r="B226" t="s">
-        <v>226</v>
+      <c r="B226">
+        <v>2339</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>14.57</v>
       </c>
-      <c r="B227" t="s">
-        <v>227</v>
+      <c r="B227">
+        <v>1863</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>14.56</v>
       </c>
-      <c r="B228" t="s">
-        <v>228</v>
+      <c r="B228">
+        <v>2563</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>14.56</v>
       </c>
-      <c r="B229" t="s">
-        <v>229</v>
+      <c r="B229">
+        <v>1543</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>14.55</v>
       </c>
-      <c r="B230" t="s">
-        <v>230</v>
+      <c r="B230">
+        <v>1347</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>14.55</v>
       </c>
-      <c r="B231" t="s">
-        <v>231</v>
+      <c r="B231">
+        <v>2553</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14.54</v>
       </c>
-      <c r="B232" t="s">
-        <v>232</v>
+      <c r="B232">
+        <v>1880</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>14.53</v>
       </c>
-      <c r="B233" t="s">
-        <v>233</v>
+      <c r="B233">
+        <v>2375</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>14.53</v>
       </c>
-      <c r="B234" t="s">
-        <v>234</v>
+      <c r="B234">
+        <v>1602</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>14.52</v>
       </c>
-      <c r="B235" t="s">
-        <v>235</v>
+      <c r="B235">
+        <v>1229</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>14.52</v>
       </c>
-      <c r="B236" t="s">
-        <v>236</v>
+      <c r="B236">
+        <v>1026</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>14.52</v>
       </c>
-      <c r="B237" t="s">
-        <v>237</v>
+      <c r="B237">
+        <v>2648</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>14.51</v>
       </c>
-      <c r="B238" t="s">
-        <v>238</v>
+      <c r="B238">
+        <v>2111</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>14.51</v>
       </c>
-      <c r="B239" t="s">
-        <v>239</v>
+      <c r="B239">
+        <v>1373</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>14.5</v>
       </c>
-      <c r="B240" t="s">
-        <v>240</v>
+      <c r="B240">
+        <v>2666</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>14.49</v>
       </c>
-      <c r="B241" t="s">
-        <v>241</v>
+      <c r="B241">
+        <v>1913</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>14.49</v>
       </c>
-      <c r="B242" t="s">
-        <v>242</v>
+      <c r="B242">
+        <v>2155</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>14.48</v>
       </c>
-      <c r="B243" t="s">
-        <v>243</v>
+      <c r="B243">
+        <v>1038</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>14.48</v>
       </c>
-      <c r="B244" t="s">
-        <v>244</v>
+      <c r="B244">
+        <v>1032</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>14.47</v>
       </c>
-      <c r="B245" t="s">
-        <v>245</v>
+      <c r="B245">
+        <v>1028</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>14.46</v>
       </c>
-      <c r="B246" t="s">
-        <v>246</v>
+      <c r="B246">
+        <v>2045</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>14.46</v>
       </c>
-      <c r="B247" t="s">
-        <v>247</v>
+      <c r="B247">
+        <v>2632</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>14.45</v>
       </c>
-      <c r="B248" t="s">
-        <v>248</v>
+      <c r="B248">
+        <v>2062</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>14.45</v>
       </c>
-      <c r="B249" t="s">
-        <v>249</v>
+      <c r="B249">
+        <v>2644</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>14.45</v>
       </c>
-      <c r="B250" t="s">
-        <v>250</v>
+      <c r="B250">
+        <v>1473</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>14.45</v>
       </c>
-      <c r="B251" t="s">
-        <v>251</v>
+      <c r="B251">
+        <v>1075</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>14.43</v>
       </c>
-      <c r="B252" t="s">
-        <v>252</v>
+      <c r="B252">
+        <v>1923</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>14.42</v>
       </c>
-      <c r="B253" t="s">
-        <v>253</v>
+      <c r="B253">
+        <v>1835</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>14.42</v>
       </c>
-      <c r="B254" t="s">
-        <v>254</v>
+      <c r="B254">
+        <v>1012</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>14.41</v>
       </c>
-      <c r="B255" t="s">
-        <v>255</v>
+      <c r="B255">
+        <v>1010</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>14.39</v>
       </c>
-      <c r="B256" t="s">
-        <v>256</v>
+      <c r="B256">
+        <v>1262</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>14.37</v>
       </c>
-      <c r="B257" t="s">
-        <v>257</v>
+      <c r="B257">
+        <v>1338</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>14.37</v>
       </c>
-      <c r="B258" t="s">
-        <v>258</v>
+      <c r="B258">
+        <v>1096</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>14.36</v>
       </c>
-      <c r="B259" t="s">
-        <v>259</v>
+      <c r="B259">
+        <v>2180</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>14.35</v>
       </c>
-      <c r="B260" t="s">
-        <v>260</v>
+      <c r="B260">
+        <v>1887</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>14.33</v>
       </c>
-      <c r="B261" t="s">
-        <v>261</v>
+      <c r="B261">
+        <v>1370</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>14.33</v>
       </c>
-      <c r="B262" t="s">
-        <v>262</v>
+      <c r="B262">
+        <v>1036</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>14.32</v>
       </c>
-      <c r="B263" t="s">
-        <v>263</v>
+      <c r="B263">
+        <v>1351</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>14.31</v>
       </c>
-      <c r="B264" t="s">
-        <v>264</v>
+      <c r="B264">
+        <v>1238</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>14.3</v>
       </c>
-      <c r="B265" t="s">
-        <v>265</v>
+      <c r="B265">
+        <v>1270</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>14.3</v>
       </c>
-      <c r="B266" t="s">
-        <v>266</v>
+      <c r="B266">
+        <v>1879</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>14.3</v>
       </c>
-      <c r="B267" t="s">
-        <v>267</v>
+      <c r="B267">
+        <v>1007</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>14.3</v>
       </c>
-      <c r="B268" t="s">
-        <v>268</v>
+      <c r="B268">
+        <v>1223</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>14.3</v>
       </c>
-      <c r="B269" t="s">
-        <v>269</v>
+      <c r="B269">
+        <v>1525</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>14.29</v>
       </c>
-      <c r="B270" t="s">
-        <v>270</v>
+      <c r="B270">
+        <v>2770</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>14.29</v>
       </c>
-      <c r="B271" t="s">
-        <v>271</v>
+      <c r="B271">
+        <v>1346</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>14.29</v>
       </c>
-      <c r="B272" t="s">
-        <v>272</v>
+      <c r="B272">
+        <v>1969</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>14.28</v>
       </c>
-      <c r="B273" t="s">
-        <v>273</v>
+      <c r="B273">
+        <v>1834</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>14.28</v>
       </c>
-      <c r="B274" t="s">
-        <v>274</v>
+      <c r="B274">
+        <v>1474</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>14.27</v>
       </c>
-      <c r="B275" t="s">
-        <v>275</v>
+      <c r="B275">
+        <v>2364</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>14.27</v>
       </c>
-      <c r="B276" t="s">
-        <v>276</v>
+      <c r="B276">
+        <v>1518</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>14.27</v>
       </c>
-      <c r="B277" t="s">
-        <v>277</v>
+      <c r="B277">
+        <v>2762</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>14.25</v>
       </c>
-      <c r="B278" t="s">
-        <v>278</v>
+      <c r="B278">
+        <v>1098</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>14.22</v>
       </c>
-      <c r="B279" t="s">
-        <v>279</v>
+      <c r="B279">
+        <v>1379</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>14.22</v>
       </c>
-      <c r="B280" t="s">
-        <v>280</v>
+      <c r="B280">
+        <v>1606</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>14.22</v>
       </c>
-      <c r="B281" t="s">
-        <v>281</v>
+      <c r="B281">
+        <v>2536</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>14.22</v>
       </c>
-      <c r="B282" t="s">
-        <v>282</v>
+      <c r="B282">
+        <v>1430</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>14.2</v>
       </c>
-      <c r="B283" t="s">
-        <v>283</v>
+      <c r="B283">
+        <v>2453</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>14.2</v>
       </c>
-      <c r="B284" t="s">
-        <v>284</v>
+      <c r="B284">
+        <v>1022</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>14.19</v>
       </c>
-      <c r="B285" t="s">
-        <v>285</v>
+      <c r="B285">
+        <v>2360</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>14.19</v>
       </c>
-      <c r="B286" t="s">
-        <v>286</v>
+      <c r="B286">
+        <v>2562</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>14.19</v>
       </c>
-      <c r="B287" t="s">
-        <v>287</v>
+      <c r="B287">
+        <v>2532</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>14.19</v>
       </c>
-      <c r="B288" t="s">
-        <v>288</v>
+      <c r="B288">
+        <v>2715</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>14.19</v>
       </c>
-      <c r="B289" t="s">
-        <v>289</v>
+      <c r="B289">
+        <v>2184</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>14.18</v>
       </c>
-      <c r="B290" t="s">
-        <v>290</v>
+      <c r="B290">
+        <v>2649</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>14.17</v>
       </c>
-      <c r="B291" t="s">
-        <v>291</v>
+      <c r="B291">
+        <v>2645</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>14.17</v>
       </c>
-      <c r="B292" t="s">
-        <v>292</v>
+      <c r="B292">
+        <v>2766</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>14.16</v>
       </c>
-      <c r="B293" t="s">
-        <v>293</v>
+      <c r="B293">
+        <v>1516</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>14.16</v>
       </c>
-      <c r="B294" t="s">
-        <v>294</v>
+      <c r="B294">
+        <v>2152</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>14.16</v>
       </c>
-      <c r="B295" t="s">
-        <v>295</v>
+      <c r="B295">
+        <v>2769</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>14.14</v>
       </c>
-      <c r="B296" t="s">
-        <v>296</v>
+      <c r="B296">
+        <v>2534</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>14.13</v>
       </c>
-      <c r="B297" t="s">
-        <v>297</v>
+      <c r="B297">
+        <v>1432</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>14.13</v>
       </c>
-      <c r="B298" t="s">
-        <v>298</v>
+      <c r="B298">
+        <v>2131</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>14.13</v>
       </c>
-      <c r="B299" t="s">
-        <v>299</v>
+      <c r="B299">
+        <v>1970</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>14.13</v>
       </c>
-      <c r="B300" t="s">
-        <v>300</v>
+      <c r="B300">
+        <v>1068</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>14.12</v>
       </c>
-      <c r="B301" t="s">
-        <v>301</v>
+      <c r="B301">
+        <v>2564</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>14.12</v>
       </c>
-      <c r="B302" t="s">
-        <v>302</v>
+      <c r="B302">
+        <v>2660</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>14.12</v>
       </c>
-      <c r="B303" t="s">
-        <v>303</v>
+      <c r="B303">
+        <v>2171</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>14.11</v>
       </c>
-      <c r="B304" t="s">
-        <v>304</v>
+      <c r="B304">
+        <v>2359</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>14.1</v>
       </c>
-      <c r="B305" t="s">
-        <v>305</v>
+      <c r="B305">
+        <v>1222</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>14.09</v>
       </c>
-      <c r="B306" t="s">
-        <v>306</v>
+      <c r="B306">
+        <v>1237</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>14.08</v>
       </c>
-      <c r="B307" t="s">
-        <v>307</v>
+      <c r="B307">
+        <v>1569</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>14.08</v>
       </c>
-      <c r="B308" t="s">
-        <v>308</v>
+      <c r="B308">
+        <v>1053</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>14.08</v>
       </c>
-      <c r="B309" t="s">
-        <v>309</v>
+      <c r="B309">
+        <v>1469</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>14.07</v>
       </c>
-      <c r="B310" t="s">
-        <v>310</v>
+      <c r="B310">
+        <v>1073</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>14.06</v>
       </c>
-      <c r="B311" t="s">
-        <v>311</v>
+      <c r="B311">
+        <v>1747</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>14.06</v>
       </c>
-      <c r="B312" t="s">
-        <v>312</v>
+      <c r="B312">
+        <v>1801</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>14.06</v>
       </c>
-      <c r="B313" t="s">
-        <v>313</v>
+      <c r="B313">
+        <v>1034</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>14.05</v>
       </c>
-      <c r="B314" t="s">
-        <v>314</v>
+      <c r="B314">
+        <v>1230</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>14.05</v>
       </c>
-      <c r="B315" t="s">
-        <v>315</v>
+      <c r="B315">
+        <v>1463</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>14.05</v>
       </c>
-      <c r="B316" t="s">
-        <v>316</v>
+      <c r="B316">
+        <v>1462</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14.04</v>
       </c>
-      <c r="B317" t="s">
-        <v>317</v>
+      <c r="B317">
+        <v>1531</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>14.04</v>
       </c>
-      <c r="B318" t="s">
-        <v>318</v>
+      <c r="B318">
+        <v>1438</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14.04</v>
       </c>
-      <c r="B319" t="s">
-        <v>319</v>
+      <c r="B319">
+        <v>2169</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>14.03</v>
       </c>
-      <c r="B320" t="s">
-        <v>320</v>
+      <c r="B320">
+        <v>2351</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>14.03</v>
       </c>
-      <c r="B321" t="s">
-        <v>321</v>
+      <c r="B321">
+        <v>1752</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>14.03</v>
       </c>
-      <c r="B322" t="s">
-        <v>322</v>
+      <c r="B322">
+        <v>2367</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>14.02</v>
       </c>
-      <c r="B323" t="s">
-        <v>323</v>
+      <c r="B323">
+        <v>1378</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>14.01</v>
       </c>
-      <c r="B324" t="s">
-        <v>324</v>
+      <c r="B324">
+        <v>1507</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>14</v>
       </c>
-      <c r="B325" t="s">
-        <v>325</v>
+      <c r="B325">
+        <v>1253</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>14</v>
       </c>
-      <c r="B326" t="s">
-        <v>326</v>
+      <c r="B326">
+        <v>1063</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>13.99</v>
       </c>
-      <c r="B327" t="s">
-        <v>327</v>
+      <c r="B327">
+        <v>1226</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>13.99</v>
       </c>
-      <c r="B328" t="s">
-        <v>328</v>
+      <c r="B328">
+        <v>2188</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>13.98</v>
       </c>
-      <c r="B329" t="s">
-        <v>329</v>
+      <c r="B329">
+        <v>2190</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>13.98</v>
       </c>
-      <c r="B330" t="s">
-        <v>330</v>
+      <c r="B330">
+        <v>2767</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>13.98</v>
       </c>
-      <c r="B331" t="s">
-        <v>331</v>
+      <c r="B331">
+        <v>2347</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>13.98</v>
       </c>
-      <c r="B332" t="s">
-        <v>332</v>
+      <c r="B332">
+        <v>1501</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>13.97</v>
       </c>
-      <c r="B333" t="s">
-        <v>333</v>
+      <c r="B333">
+        <v>1757</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>13.97</v>
       </c>
-      <c r="B334" t="s">
-        <v>334</v>
+      <c r="B334">
+        <v>2191</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>13.96</v>
       </c>
-      <c r="B335" t="s">
-        <v>335</v>
+      <c r="B335">
+        <v>1008</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>13.96</v>
       </c>
-      <c r="B336" t="s">
-        <v>336</v>
+      <c r="B336">
+        <v>2324</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>13.96</v>
       </c>
-      <c r="B337" t="s">
-        <v>337</v>
+      <c r="B337">
+        <v>1079</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>13.96</v>
       </c>
-      <c r="B338" t="s">
-        <v>338</v>
+      <c r="B338">
+        <v>1033</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>13.95</v>
       </c>
-      <c r="B339" t="s">
-        <v>339</v>
+      <c r="B339">
+        <v>1257</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>13.95</v>
       </c>
-      <c r="B340" t="s">
-        <v>340</v>
+      <c r="B340">
+        <v>1949</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>13.94</v>
       </c>
-      <c r="B341" t="s">
-        <v>341</v>
+      <c r="B341">
+        <v>2341</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>13.94</v>
       </c>
-      <c r="B342" t="s">
-        <v>342</v>
+      <c r="B342">
+        <v>1523</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>13.92</v>
       </c>
-      <c r="B343" t="s">
-        <v>343</v>
+      <c r="B343">
+        <v>2764</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>13.92</v>
       </c>
-      <c r="B344" t="s">
-        <v>344</v>
+      <c r="B344">
+        <v>1876</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>13.92</v>
       </c>
-      <c r="B345" t="s">
-        <v>345</v>
+      <c r="B345">
+        <v>1077</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>13.91</v>
       </c>
-      <c r="B346" t="s">
-        <v>346</v>
+      <c r="B346">
+        <v>1749</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>13.9</v>
       </c>
-      <c r="B347" t="s">
-        <v>347</v>
+      <c r="B347">
+        <v>2542</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>13.9</v>
       </c>
-      <c r="B348" t="s">
-        <v>348</v>
+      <c r="B348">
+        <v>2639</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>13.9</v>
       </c>
-      <c r="B349" t="s">
-        <v>349</v>
+      <c r="B349">
+        <v>2664</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>13.89</v>
       </c>
-      <c r="B350" t="s">
-        <v>350</v>
+      <c r="B350">
+        <v>1821</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>13.89</v>
       </c>
-      <c r="B351" t="s">
-        <v>351</v>
+      <c r="B351">
+        <v>1510</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>13.89</v>
       </c>
-      <c r="B352" t="s">
-        <v>352</v>
+      <c r="B352">
+        <v>1337</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>13.88</v>
       </c>
-      <c r="B353" t="s">
-        <v>353</v>
+      <c r="B353">
+        <v>1609</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>13.88</v>
       </c>
-      <c r="B354" t="s">
-        <v>354</v>
+      <c r="B354">
+        <v>1534</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>13.88</v>
       </c>
-      <c r="B355" t="s">
-        <v>355</v>
+      <c r="B355">
+        <v>2072</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>13.87</v>
       </c>
-      <c r="B356" t="s">
-        <v>356</v>
+      <c r="B356">
+        <v>1027</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>13.86</v>
       </c>
-      <c r="B357" t="s">
-        <v>357</v>
+      <c r="B357">
+        <v>1583</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>13.85</v>
       </c>
-      <c r="B358" t="s">
-        <v>358</v>
+      <c r="B358">
+        <v>2771</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>13.84</v>
       </c>
-      <c r="B359" t="s">
-        <v>359</v>
+      <c r="B359">
+        <v>2338</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>13.84</v>
       </c>
-      <c r="B360" t="s">
-        <v>360</v>
+      <c r="B360">
+        <v>1452</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>13.83</v>
       </c>
-      <c r="B361" t="s">
-        <v>361</v>
+      <c r="B361">
+        <v>1118</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>13.83</v>
       </c>
-      <c r="B362" t="s">
-        <v>362</v>
+      <c r="B362">
+        <v>1243</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>13.82</v>
       </c>
-      <c r="B363" t="s">
-        <v>363</v>
+      <c r="B363">
+        <v>1521</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>13.81</v>
       </c>
-      <c r="B364" t="s">
-        <v>364</v>
+      <c r="B364">
+        <v>1952</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>13.79</v>
       </c>
-      <c r="B365" t="s">
-        <v>365</v>
+      <c r="B365">
+        <v>1030</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>13.79</v>
       </c>
-      <c r="B366" t="s">
-        <v>366</v>
+      <c r="B366">
+        <v>2379</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>13.79</v>
       </c>
-      <c r="B367" t="s">
-        <v>367</v>
+      <c r="B367">
+        <v>1339</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>13.77</v>
       </c>
-      <c r="B368" t="s">
-        <v>368</v>
+      <c r="B368">
+        <v>2346</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>13.77</v>
       </c>
-      <c r="B369" t="s">
-        <v>369</v>
+      <c r="B369">
+        <v>1588</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>13.77</v>
       </c>
-      <c r="B370" t="s">
-        <v>370</v>
+      <c r="B370">
+        <v>1930</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>13.77</v>
       </c>
-      <c r="B371" t="s">
-        <v>371</v>
+      <c r="B371">
+        <v>2120</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>13.77</v>
       </c>
-      <c r="B372" t="s">
-        <v>372</v>
+      <c r="B372">
+        <v>2663</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>13.77</v>
       </c>
-      <c r="B373" t="s">
-        <v>373</v>
+      <c r="B373">
+        <v>1301</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>13.76</v>
       </c>
-      <c r="B374" t="s">
-        <v>374</v>
+      <c r="B374">
+        <v>1085</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>13.74</v>
       </c>
-      <c r="B375" t="s">
-        <v>375</v>
+      <c r="B375">
+        <v>2673</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>13.74</v>
       </c>
-      <c r="B376" t="s">
-        <v>376</v>
+      <c r="B376">
+        <v>1862</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>13.74</v>
       </c>
-      <c r="B377" t="s">
-        <v>377</v>
+      <c r="B377">
+        <v>2170</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>13.73</v>
       </c>
-      <c r="B378" t="s">
-        <v>378</v>
+      <c r="B378">
+        <v>2189</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>13.73</v>
       </c>
-      <c r="B379" t="s">
-        <v>379</v>
+      <c r="B379">
+        <v>2382</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>13.72</v>
       </c>
-      <c r="B380" t="s">
-        <v>380</v>
+      <c r="B380">
+        <v>2343</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>13.72</v>
       </c>
-      <c r="B381" t="s">
-        <v>381</v>
+      <c r="B381">
+        <v>1540</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>13.7</v>
       </c>
-      <c r="B382" t="s">
-        <v>382</v>
+      <c r="B382">
+        <v>2019</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>13.69</v>
       </c>
-      <c r="B383" t="s">
-        <v>383</v>
+      <c r="B383">
+        <v>1071</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>13.68</v>
       </c>
-      <c r="B384" t="s">
-        <v>384</v>
+      <c r="B384">
+        <v>1702</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>13.68</v>
       </c>
-      <c r="B385" t="s">
-        <v>385</v>
+      <c r="B385">
+        <v>1431</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>13.68</v>
       </c>
-      <c r="B386" t="s">
-        <v>386</v>
+      <c r="B386">
+        <v>1057</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>13.67</v>
       </c>
-      <c r="B387" t="s">
-        <v>387</v>
+      <c r="B387">
+        <v>2333</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>13.67</v>
       </c>
-      <c r="B388" t="s">
-        <v>388</v>
+      <c r="B388">
+        <v>1001</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>13.66</v>
       </c>
-      <c r="B389" t="s">
-        <v>389</v>
+      <c r="B389">
+        <v>1527</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>13.66</v>
       </c>
-      <c r="B390" t="s">
-        <v>390</v>
+      <c r="B390">
+        <v>1571</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>13.66</v>
       </c>
-      <c r="B391" t="s">
-        <v>391</v>
+      <c r="B391">
+        <v>1904</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>13.65</v>
       </c>
-      <c r="B392" t="s">
-        <v>392</v>
+      <c r="B392">
+        <v>1504</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>13.64</v>
       </c>
-      <c r="B393" t="s">
-        <v>393</v>
+      <c r="B393">
+        <v>1611</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>13.62</v>
       </c>
-      <c r="B394" t="s">
-        <v>394</v>
+      <c r="B394">
+        <v>2370</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>13.62</v>
       </c>
-      <c r="B395" t="s">
-        <v>395</v>
+      <c r="B395">
+        <v>1255</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>13.62</v>
       </c>
-      <c r="B396" t="s">
-        <v>396</v>
+      <c r="B396">
+        <v>1029</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>13.62</v>
       </c>
-      <c r="B397" t="s">
-        <v>397</v>
+      <c r="B397">
+        <v>2748</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>13.61</v>
       </c>
-      <c r="B398" t="s">
-        <v>398</v>
+      <c r="B398">
+        <v>1960</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>13.6</v>
       </c>
-      <c r="B399" t="s">
-        <v>399</v>
+      <c r="B399">
+        <v>1515</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>13.59</v>
       </c>
-      <c r="B400" t="s">
-        <v>400</v>
+      <c r="B400">
+        <v>1561</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>13.59</v>
       </c>
-      <c r="B401" t="s">
-        <v>401</v>
+      <c r="B401">
+        <v>1201</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>13.59</v>
       </c>
-      <c r="B402" t="s">
-        <v>402</v>
+      <c r="B402">
+        <v>1506</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>13.57</v>
       </c>
-      <c r="B403" t="s">
-        <v>403</v>
+      <c r="B403">
+        <v>1128</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>13.57</v>
       </c>
-      <c r="B404" t="s">
-        <v>404</v>
+      <c r="B404">
+        <v>1524</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>13.55</v>
       </c>
-      <c r="B405" t="s">
-        <v>405</v>
+      <c r="B405">
+        <v>2148</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>13.55</v>
       </c>
-      <c r="B406" t="s">
-        <v>406</v>
+      <c r="B406">
+        <v>2703</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>13.55</v>
       </c>
-      <c r="B407" t="s">
-        <v>407</v>
+      <c r="B407">
+        <v>1844</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>13.53</v>
       </c>
-      <c r="B408" t="s">
-        <v>408</v>
+      <c r="B408">
+        <v>2571</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>13.53</v>
       </c>
-      <c r="B409" t="s">
-        <v>409</v>
+      <c r="B409">
+        <v>1225</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>13.52</v>
       </c>
-      <c r="B410" t="s">
-        <v>410</v>
+      <c r="B410">
+        <v>1005</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>13.51</v>
       </c>
-      <c r="B411" t="s">
-        <v>411</v>
+      <c r="B411">
+        <v>1089</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>13.51</v>
       </c>
-      <c r="B412" t="s">
-        <v>412</v>
+      <c r="B412">
+        <v>1235</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>13.51</v>
       </c>
-      <c r="B413" t="s">
-        <v>413</v>
+      <c r="B413">
+        <v>2368</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>13.51</v>
       </c>
-      <c r="B414" t="s">
-        <v>414</v>
+      <c r="B414">
+        <v>2790</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>13.5</v>
       </c>
-      <c r="B415" t="s">
-        <v>415</v>
+      <c r="B415">
+        <v>2145</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>13.49</v>
       </c>
-      <c r="B416" t="s">
-        <v>416</v>
+      <c r="B416">
+        <v>1542</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>13.47</v>
       </c>
-      <c r="B417" t="s">
-        <v>417</v>
+      <c r="B417">
+        <v>1535</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>13.47</v>
       </c>
-      <c r="B418" t="s">
-        <v>418</v>
+      <c r="B418">
+        <v>1826</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>13.47</v>
       </c>
-      <c r="B419" t="s">
-        <v>419</v>
+      <c r="B419">
+        <v>1129</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>13.46</v>
       </c>
-      <c r="B420" t="s">
-        <v>420</v>
+      <c r="B420">
+        <v>2779</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>13.46</v>
       </c>
-      <c r="B421" t="s">
-        <v>421</v>
+      <c r="B421">
+        <v>1340</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>13.45</v>
       </c>
-      <c r="B422" t="s">
-        <v>422</v>
+      <c r="B422">
+        <v>1585</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>13.45</v>
       </c>
-      <c r="B423" t="s">
-        <v>423</v>
+      <c r="B423">
+        <v>1906</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>13.45</v>
       </c>
-      <c r="B424" t="s">
-        <v>424</v>
+      <c r="B424">
+        <v>1050</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>13.44</v>
       </c>
-      <c r="B425" t="s">
-        <v>425</v>
+      <c r="B425">
+        <v>2136</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>13.43</v>
       </c>
-      <c r="B426" t="s">
-        <v>426</v>
+      <c r="B426">
+        <v>2726</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>13.41</v>
       </c>
-      <c r="B427" t="s">
-        <v>427</v>
+      <c r="B427">
+        <v>2322</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>13.41</v>
       </c>
-      <c r="B428" t="s">
-        <v>428</v>
+      <c r="B428">
+        <v>1529</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>13.4</v>
       </c>
-      <c r="B429" t="s">
-        <v>429</v>
+      <c r="B429">
+        <v>1604</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>13.4</v>
       </c>
-      <c r="B430" t="s">
-        <v>430</v>
+      <c r="B430">
+        <v>2601</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>13.4</v>
       </c>
-      <c r="B431" t="s">
-        <v>431</v>
+      <c r="B431">
+        <v>1537</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>13.39</v>
       </c>
-      <c r="B432" t="s">
-        <v>432</v>
+      <c r="B432">
+        <v>1349</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>13.38</v>
       </c>
-      <c r="B433" t="s">
-        <v>433</v>
+      <c r="B433">
+        <v>1343</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>13.38</v>
       </c>
-      <c r="B434" t="s">
-        <v>434</v>
+      <c r="B434">
+        <v>2777</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>13.38</v>
       </c>
-      <c r="B435" t="s">
-        <v>435</v>
+      <c r="B435">
+        <v>1832</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>13.38</v>
       </c>
-      <c r="B436" t="s">
-        <v>436</v>
+      <c r="B436">
+        <v>1562</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>13.38</v>
       </c>
-      <c r="B437" t="s">
-        <v>437</v>
+      <c r="B437">
+        <v>1082</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>13.37</v>
       </c>
-      <c r="B438" t="s">
-        <v>438</v>
+      <c r="B438">
+        <v>1069</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>13.37</v>
       </c>
-      <c r="B439" t="s">
-        <v>439</v>
+      <c r="B439">
+        <v>1901</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>13.34</v>
       </c>
-      <c r="B440" t="s">
-        <v>440</v>
+      <c r="B440">
+        <v>2071</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>13.34</v>
       </c>
-      <c r="B441" t="s">
-        <v>441</v>
+      <c r="B441">
+        <v>1344</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>13.32</v>
       </c>
-      <c r="B442" t="s">
-        <v>442</v>
+      <c r="B442">
+        <v>1453</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>13.32</v>
       </c>
-      <c r="B443" t="s">
-        <v>443</v>
+      <c r="B443">
+        <v>1468</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>13.29</v>
       </c>
-      <c r="B444" t="s">
-        <v>444</v>
+      <c r="B444">
+        <v>2576</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>13.29</v>
       </c>
-      <c r="B445" t="s">
-        <v>445</v>
+      <c r="B445">
+        <v>1605</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>13.28</v>
       </c>
-      <c r="B446" t="s">
-        <v>446</v>
+      <c r="B446">
+        <v>2702</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>13.27</v>
       </c>
-      <c r="B447" t="s">
-        <v>447</v>
+      <c r="B447">
+        <v>2719</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>13.27</v>
       </c>
-      <c r="B448" t="s">
-        <v>448</v>
+      <c r="B448">
+        <v>1830</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>13.27</v>
       </c>
-      <c r="B449" t="s">
-        <v>449</v>
+      <c r="B449">
+        <v>2330</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>13.23</v>
       </c>
-      <c r="B450" t="s">
-        <v>450</v>
+      <c r="B450">
+        <v>2125</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>13.21</v>
       </c>
-      <c r="B451" t="s">
-        <v>451</v>
+      <c r="B451">
+        <v>1092</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>13.2</v>
       </c>
-      <c r="B452" t="s">
-        <v>452</v>
+      <c r="B452">
+        <v>1367</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>13.19</v>
       </c>
-      <c r="B453" t="s">
-        <v>453</v>
+      <c r="B453">
+        <v>1376</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>13.19</v>
       </c>
-      <c r="B454" t="s">
-        <v>454</v>
+      <c r="B454">
+        <v>1074</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>13.18</v>
       </c>
-      <c r="B455" t="s">
-        <v>455</v>
+      <c r="B455">
+        <v>1081</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>13.17</v>
       </c>
-      <c r="B456" t="s">
-        <v>456</v>
+      <c r="B456">
+        <v>2539</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>13.17</v>
       </c>
-      <c r="B457" t="s">
-        <v>457</v>
+      <c r="B457">
+        <v>1434</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>13.16</v>
       </c>
-      <c r="B458" t="s">
-        <v>458</v>
+      <c r="B458">
+        <v>2717</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>13.15</v>
       </c>
-      <c r="B459" t="s">
-        <v>459</v>
+      <c r="B459">
+        <v>1350</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>13.15</v>
       </c>
-      <c r="B460" t="s">
-        <v>460</v>
+      <c r="B460">
+        <v>1475</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>13.12</v>
       </c>
-      <c r="B461" t="s">
-        <v>461</v>
+      <c r="B461">
+        <v>1224</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>13.11</v>
       </c>
-      <c r="B462" t="s">
-        <v>462</v>
+      <c r="B462">
+        <v>1097</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>13.1</v>
       </c>
-      <c r="B463" t="s">
-        <v>463</v>
+      <c r="B463">
+        <v>2718</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>13.08</v>
       </c>
-      <c r="B464" t="s">
-        <v>464</v>
+      <c r="B464">
+        <v>1247</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>13.07</v>
       </c>
-      <c r="B465" t="s">
-        <v>465</v>
+      <c r="B465">
+        <v>1607</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>13.05</v>
       </c>
-      <c r="B466" t="s">
-        <v>466</v>
+      <c r="B466">
+        <v>1056</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>13.04</v>
       </c>
-      <c r="B467" t="s">
-        <v>467</v>
+      <c r="B467">
+        <v>1464</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>13.04</v>
       </c>
-      <c r="B468" t="s">
-        <v>468</v>
+      <c r="B468">
+        <v>1852</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>13.02</v>
       </c>
-      <c r="B469" t="s">
-        <v>469</v>
+      <c r="B469">
+        <v>1368</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>13.01</v>
       </c>
-      <c r="B470" t="s">
-        <v>470</v>
+      <c r="B470">
+        <v>1436</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>12.99</v>
       </c>
-      <c r="B471" t="s">
-        <v>471</v>
+      <c r="B471">
+        <v>1011</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>12.98</v>
       </c>
-      <c r="B472" t="s">
-        <v>472</v>
+      <c r="B472">
+        <v>1256</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>12.97</v>
       </c>
-      <c r="B473" t="s">
-        <v>473</v>
+      <c r="B473">
+        <v>1937</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>12.96</v>
       </c>
-      <c r="B474" t="s">
-        <v>474</v>
+      <c r="B474">
+        <v>1364</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>12.96</v>
       </c>
-      <c r="B475" t="s">
-        <v>475</v>
+      <c r="B475">
+        <v>1031</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>12.95</v>
       </c>
-      <c r="B476" t="s">
-        <v>476</v>
+      <c r="B476">
+        <v>1220</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>12.92</v>
       </c>
-      <c r="B477" t="s">
-        <v>477</v>
+      <c r="B477">
+        <v>1020</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>12.92</v>
       </c>
-      <c r="B478" t="s">
-        <v>478</v>
+      <c r="B478">
+        <v>1420</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>12.92</v>
       </c>
-      <c r="B479" t="s">
-        <v>479</v>
+      <c r="B479">
+        <v>2747</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>12.9</v>
       </c>
-      <c r="B480" t="s">
-        <v>480</v>
+      <c r="B480">
+        <v>1570</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>12.9</v>
       </c>
-      <c r="B481" t="s">
-        <v>481</v>
+      <c r="B481">
+        <v>1083</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>12.87</v>
       </c>
-      <c r="B482" t="s">
-        <v>482</v>
+      <c r="B482">
+        <v>1440</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>12.87</v>
       </c>
-      <c r="B483" t="s">
-        <v>483</v>
+      <c r="B483">
+        <v>1094</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>12.84</v>
       </c>
-      <c r="B484" t="s">
-        <v>484</v>
+      <c r="B484">
+        <v>2302</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>12.83</v>
       </c>
-      <c r="B485" t="s">
-        <v>485</v>
+      <c r="B485">
+        <v>1331</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>12.82</v>
       </c>
-      <c r="B486" t="s">
-        <v>486</v>
+      <c r="B486">
+        <v>2538</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>12.81</v>
       </c>
-      <c r="B487" t="s">
-        <v>487</v>
+      <c r="B487">
+        <v>2743</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>12.8</v>
       </c>
-      <c r="B488" t="s">
-        <v>488</v>
+      <c r="B488">
+        <v>1119</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>12.8</v>
       </c>
-      <c r="B489" t="s">
-        <v>489</v>
+      <c r="B489">
+        <v>2558</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>12.78</v>
       </c>
-      <c r="B490" t="s">
-        <v>490</v>
+      <c r="B490">
+        <v>2124</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>12.78</v>
       </c>
-      <c r="B491" t="s">
-        <v>491</v>
+      <c r="B491">
+        <v>1040</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>12.77</v>
       </c>
-      <c r="B492" t="s">
-        <v>492</v>
+      <c r="B492">
+        <v>2119</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>12.75</v>
       </c>
-      <c r="B493" t="s">
-        <v>493</v>
+      <c r="B493">
+        <v>1088</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>12.73</v>
       </c>
-      <c r="B494" t="s">
-        <v>494</v>
+      <c r="B494">
+        <v>1108</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>12.7</v>
       </c>
-      <c r="B495" t="s">
-        <v>495</v>
+      <c r="B495">
+        <v>2151</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>12.7</v>
       </c>
-      <c r="B496" t="s">
-        <v>496</v>
+      <c r="B496">
+        <v>1550</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>12.66</v>
       </c>
-      <c r="B497" t="s">
-        <v>497</v>
+      <c r="B497">
+        <v>2780</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>12.65</v>
       </c>
-      <c r="B498" t="s">
-        <v>498</v>
+      <c r="B498">
+        <v>2720</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>12.6</v>
       </c>
-      <c r="B499" t="s">
-        <v>499</v>
+      <c r="B499">
+        <v>1603</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>12.59</v>
       </c>
-      <c r="B500" t="s">
-        <v>500</v>
+      <c r="B500">
+        <v>1080</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>12.58</v>
       </c>
-      <c r="B501" t="s">
-        <v>501</v>
+      <c r="B501">
+        <v>1854</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>12.56</v>
       </c>
-      <c r="B502" t="s">
-        <v>502</v>
+      <c r="B502">
+        <v>1151</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>12.55</v>
       </c>
-      <c r="B503" t="s">
-        <v>503</v>
+      <c r="B503">
+        <v>2301</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>12.53</v>
       </c>
-      <c r="B504" t="s">
-        <v>504</v>
+      <c r="B504">
+        <v>2149</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>12.52</v>
       </c>
-      <c r="B505" t="s">
-        <v>505</v>
+      <c r="B505">
+        <v>1850</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>12.5</v>
       </c>
-      <c r="B506" t="s">
-        <v>506</v>
+      <c r="B506">
+        <v>1851</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>12.5</v>
       </c>
-      <c r="B507" t="s">
-        <v>507</v>
+      <c r="B507">
+        <v>2725</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>12.45</v>
       </c>
-      <c r="B508" t="s">
-        <v>508</v>
+      <c r="B508">
+        <v>1013</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>12.42</v>
       </c>
-      <c r="B509" t="s">
-        <v>509</v>
+      <c r="B509">
+        <v>2126</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>12.41</v>
       </c>
-      <c r="B510" t="s">
-        <v>510</v>
+      <c r="B510">
+        <v>2122</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>12.39</v>
       </c>
-      <c r="B511" t="s">
-        <v>511</v>
+      <c r="B511">
+        <v>1902</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>12.38</v>
       </c>
-      <c r="B512" t="s">
-        <v>512</v>
+      <c r="B512">
+        <v>1905</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>12.34</v>
       </c>
-      <c r="B513" t="s">
-        <v>513</v>
+      <c r="B513">
+        <v>2745</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>12.33</v>
       </c>
-      <c r="B514" t="s">
-        <v>514</v>
+      <c r="B514">
+        <v>2740</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>12.28</v>
       </c>
-      <c r="B515" t="s">
-        <v>515</v>
+      <c r="B515">
+        <v>1109</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>12.28</v>
       </c>
-      <c r="B516" t="s">
-        <v>516</v>
+      <c r="B516">
+        <v>1260</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>12.27</v>
       </c>
-      <c r="B517" t="s">
-        <v>517</v>
+      <c r="B517">
+        <v>1843</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>12.26</v>
       </c>
-      <c r="B518" t="s">
-        <v>518</v>
+      <c r="B518">
+        <v>2121</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>12.23</v>
       </c>
-      <c r="B519" t="s">
-        <v>519</v>
+      <c r="B519">
+        <v>1009</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>12.2</v>
       </c>
-      <c r="B520" t="s">
-        <v>520</v>
+      <c r="B520">
+        <v>1103</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>12.12</v>
       </c>
-      <c r="B521" t="s">
-        <v>521</v>
+      <c r="B521">
+        <v>1610</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>12.07</v>
       </c>
-      <c r="B522" t="s">
-        <v>522</v>
+      <c r="B522">
+        <v>1104</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>12.01</v>
       </c>
-      <c r="B523" t="s">
-        <v>523</v>
+      <c r="B523">
+        <v>1608</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>12.01</v>
       </c>
-      <c r="B524" t="s">
-        <v>524</v>
+      <c r="B524">
+        <v>2128</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>12</v>
       </c>
-      <c r="B525" t="s">
-        <v>525</v>
+      <c r="B525">
+        <v>2047</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>11.78</v>
       </c>
-      <c r="B526" t="s">
-        <v>526</v>
+      <c r="B526">
+        <v>2150</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>11.7</v>
       </c>
-      <c r="B527" t="s">
-        <v>527</v>
+      <c r="B527">
+        <v>2721</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>11.62</v>
       </c>
-      <c r="B528" t="s">
-        <v>528</v>
+      <c r="B528">
+        <v>1841</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>11.6</v>
       </c>
-      <c r="B529" t="s">
-        <v>529</v>
+      <c r="B529">
+        <v>2366</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>11.54</v>
       </c>
-      <c r="B530" t="s">
-        <v>530</v>
+      <c r="B530">
+        <v>2723</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>11.52</v>
       </c>
-      <c r="B531" t="s">
-        <v>531</v>
+      <c r="B531">
+        <v>2744</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>11.49</v>
       </c>
-      <c r="B532" t="s">
-        <v>532</v>
+      <c r="B532">
+        <v>1840</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>11.46</v>
       </c>
-      <c r="B533" t="s">
-        <v>533</v>
+      <c r="B533">
+        <v>2724</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>11.3</v>
       </c>
-      <c r="B534" t="s">
-        <v>534</v>
+      <c r="B534">
+        <v>1105</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>11.19</v>
       </c>
-      <c r="B535" t="s">
-        <v>535</v>
+      <c r="B535">
+        <v>2746</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>11.04</v>
       </c>
-      <c r="B536" t="s">
-        <v>536</v>
+      <c r="B536">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>14.46</v>
+      </c>
+      <c r="B537">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>15.09</v>
+      </c>
+      <c r="B538">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>13.77</v>
+      </c>
+      <c r="B539">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>13.38</v>
+      </c>
+      <c r="B540">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>14.74</v>
+      </c>
+      <c r="B541">
+        <v>2893</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>